--- a/testfiles/original_packing_list - 副本.xlsx
+++ b/testfiles/original_packing_list - 副本.xlsx
@@ -3115,10 +3115,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P40" sqref="P40:P46"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1:AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6272727272727" defaultRowHeight="30" customHeight="1"/>

--- a/testfiles/original_packing_list - 副本.xlsx
+++ b/testfiles/original_packing_list - 副本.xlsx
@@ -13,9 +13,9 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'装箱单模版-2025年更新'!$A$1:$AB$64</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'装箱单模版-2025年更新'!$A$2:$Y$64</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'装箱单模版-2025年更新'!$2:$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'装箱单模版-2025年更新'!$A$3:$AC$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'装箱单模版-2025年更新'!$A$3:$Y$64</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'装箱单模版-2025年更新'!$3:$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,10 +34,79 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>123</author>
+  </authors>
+  <commentList>
+    <comment ref="Z2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">给工厂的时候需删除此列
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>给工厂的时候需删除此列</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">给工厂的时候需删除此列
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>给工厂的时候需删除此列</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="298">
-  <si>
-    <t>采购装箱单 PL25001 2025年更新版本</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="301">
+  <si>
+    <t>采购装箱单</t>
+  </si>
+  <si>
+    <t>采购装箱单编号：</t>
+  </si>
+  <si>
+    <t>CXCI2025012201</t>
+  </si>
+  <si>
+    <t>（版本: V2025-01）</t>
   </si>
   <si>
     <t>S/N</t>
@@ -61,7 +130,7 @@
     <t>Commercial Invoice Description</t>
   </si>
   <si>
-    <t>EPR Part NameEPR</t>
+    <t>EPR Part Name</t>
   </si>
   <si>
     <t>Model Number</t>
@@ -115,7 +184,7 @@
     <t>Purchasing Company</t>
   </si>
   <si>
-    <t>Unit Price (Excl. Tax, CNY)()</t>
+    <t>Unit Price (Excl. Tax, CNY)</t>
   </si>
   <si>
     <t>Tax Rate (%)</t>
@@ -142,7 +211,7 @@
     <t>供应商开票名称</t>
   </si>
   <si>
-    <t>物料名称</t>
+    <t>EPR物料名称</t>
   </si>
   <si>
     <t>型号</t>
@@ -196,7 +265,7 @@
     <t>采购公司</t>
   </si>
   <si>
-    <t>采购单价不含税</t>
+    <t>采购单价(不含税)</t>
   </si>
   <si>
     <t>开票税率</t>
@@ -211,7 +280,7 @@
     <t>SMT工厂月度辅耗材</t>
   </si>
   <si>
-    <t>Silvass</t>
+    <t>Silvassa</t>
   </si>
   <si>
     <t>Milling cutter</t>
@@ -935,7 +1004,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="11">
+  <numFmts count="12">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -945,10 +1014,11 @@
     <numFmt numFmtId="178" formatCode="&quot;US$&quot;#,##0.00_);[Red]\(&quot;US$&quot;#,##0.00\)"/>
     <numFmt numFmtId="179" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="180" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="181" formatCode="0.00_ "/>
-    <numFmt numFmtId="182" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="182" formatCode="0.00_ "/>
+    <numFmt numFmtId="183" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -968,13 +1038,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="12"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1143,6 +1218,11 @@
       <name val=""/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -1153,7 +1233,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,7 +1245,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1551,133 +1631,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
@@ -1687,7 +1767,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1698,17 +1778,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="115">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1724,9 +1798,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1739,6 +1810,18 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1747,88 +1830,97 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="3" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="3" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1860,145 +1952,111 @@
     <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2016,11 +2074,7 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2032,6 +2086,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2040,96 +2102,81 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="53" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="53" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2138,9 +2185,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2817,7 +2861,12 @@
         </row>
         <row r="61">
           <cell r="B61" t="str">
-            <v>TTL:</v>
+            <v>Total:</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="C62" t="str">
+            <v>SAY USD TWENTY-NINE THOUSAND EIGHT HUNDRED AND FORTY-SEVEN AND POINT THIRTY-EIGHT ONLY.</v>
           </cell>
         </row>
       </sheetData>
@@ -3115,4643 +3164,4633 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1:AA1"/>
+      <selection pane="bottomLeft" activeCell="Q35" sqref="Q35:Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6272727272727" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.75454545454545" style="4" customWidth="1"/>
-    <col min="2" max="2" width="23.1818181818182" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.37272727272727" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.6272727272727" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.6272727272727" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.8727272727273" style="6" customWidth="1"/>
-    <col min="7" max="7" width="16.8727272727273" style="5" customWidth="1"/>
-    <col min="8" max="8" width="20.7545454545455" style="5" customWidth="1"/>
-    <col min="9" max="9" width="21.6272727272727" style="7" customWidth="1"/>
-    <col min="10" max="11" width="10.6272727272727" style="4" customWidth="1"/>
-    <col min="12" max="12" width="13.2545454545455" style="2" customWidth="1"/>
-    <col min="13" max="15" width="10.6272727272727" style="8" customWidth="1"/>
-    <col min="16" max="16" width="10.6272727272727" style="9" customWidth="1"/>
-    <col min="17" max="17" width="10.6272727272727" style="10" customWidth="1"/>
-    <col min="18" max="18" width="10.6272727272727" style="9" customWidth="1"/>
-    <col min="19" max="20" width="10.6272727272727" style="10" customWidth="1"/>
-    <col min="21" max="21" width="10.6272727272727" style="11" customWidth="1"/>
-    <col min="22" max="25" width="10.6272727272727" style="2" customWidth="1"/>
-    <col min="26" max="26" width="10.6272727272727" style="4" customWidth="1"/>
-    <col min="27" max="27" width="10.6272727272727" style="12" customWidth="1"/>
-    <col min="28" max="28" width="10.6272727272727" style="13" customWidth="1"/>
-    <col min="29" max="29" width="10.6272727272727" style="2" customWidth="1"/>
-    <col min="30" max="16384" width="10.6272727272727" style="2"/>
+    <col min="1" max="1" width="5.23636363636364" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.1818181818182" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.37272727272727" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.6272727272727" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.3272727272727" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.8727272727273" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16.8727272727273" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.7545454545455" style="3" customWidth="1"/>
+    <col min="9" max="9" width="21.6272727272727" style="5" customWidth="1"/>
+    <col min="10" max="11" width="10.6272727272727" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.2545454545455" style="1" customWidth="1"/>
+    <col min="13" max="15" width="10.6272727272727" style="6" customWidth="1"/>
+    <col min="16" max="17" width="10.6272727272727" style="7" customWidth="1"/>
+    <col min="18" max="18" width="9.3" style="7" customWidth="1"/>
+    <col min="19" max="20" width="10.6272727272727" style="7" customWidth="1"/>
+    <col min="21" max="21" width="10.6272727272727" style="8" customWidth="1"/>
+    <col min="22" max="25" width="10.6272727272727" style="1" customWidth="1"/>
+    <col min="26" max="26" width="8.44545454545455" style="2" customWidth="1"/>
+    <col min="27" max="27" width="8.44545454545455" style="9" customWidth="1"/>
+    <col min="28" max="28" width="10.6272727272727" style="10" customWidth="1"/>
+    <col min="29" max="29" width="10.6272727272727" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="10.6272727272727" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:27">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="16.5" spans="1:27">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="14" spans="1:27">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+    </row>
+    <row r="2" ht="34.5" spans="1:27">
+      <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="B2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="C2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="E2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="F2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="G2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="H2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="I2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="J2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="K2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="L2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="50" t="s">
+      <c r="M2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="N2" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="50" t="s">
+      <c r="O2" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="P2" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="Q2" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="R2" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="S2" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="T2" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="U2" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="V2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="W2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="X2" s="78" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="14" spans="1:27">
-      <c r="A3" s="1" t="s">
+      <c r="Y2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="Z2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="AA2" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="3" ht="23" spans="1:27">
+      <c r="A3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="B3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="C3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="D3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="E3" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="F3" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="G3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="H3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="I3" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="J3" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="K3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="L3" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="50" t="s">
+      <c r="M3" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="N3" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="50" t="s">
+      <c r="O3" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="P3" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="Q3" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="R3" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="S3" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="T3" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="U3" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="V3" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="W3" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="X3" s="78" t="s">
         <v>54</v>
       </c>
+      <c r="Y3" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z3" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA3" s="87" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="4" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A4" s="14">
+      <c r="A4" s="15">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="B4" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="D4" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="16" t="str">
+      <c r="E4" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="20" t="str">
         <f>VLOOKUP(B4,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="15">
         <v>500</v>
       </c>
-      <c r="K4" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" s="51">
+      <c r="K4" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="54">
         <f ca="1" t="shared" ref="M4:M9" si="0">ROUND(EVALUATE(L4)*1000*0.000000001,2)</f>
         <v>0.01</v>
       </c>
-      <c r="N4" s="52">
+      <c r="N4" s="55">
         <f ca="1">M4*T4</f>
         <v>0.01</v>
       </c>
-      <c r="O4" s="53">
+      <c r="O4" s="56">
         <v>2.8</v>
       </c>
-      <c r="P4" s="54">
+      <c r="P4" s="57">
         <f>O4*T4</f>
         <v>2.8</v>
       </c>
-      <c r="Q4" s="76">
+      <c r="Q4" s="57">
         <v>2.6</v>
       </c>
-      <c r="R4" s="54">
+      <c r="R4" s="57">
         <v>2.6</v>
       </c>
-      <c r="S4" s="33">
+      <c r="S4" s="36">
         <v>500</v>
       </c>
-      <c r="T4" s="33">
+      <c r="T4" s="36">
         <f>J4/S4</f>
         <v>1</v>
       </c>
-      <c r="U4" s="84" t="s">
-        <v>63</v>
-      </c>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y4" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z4" s="14">
+      <c r="U4" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y4" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z4" s="15">
         <v>5</v>
       </c>
-      <c r="AA4" s="93">
+      <c r="AA4" s="88">
         <v>0.13</v>
       </c>
     </row>
     <row r="5" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A5" s="14">
+      <c r="A5" s="15">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="C5" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="16" t="str">
+      <c r="D5" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="20" t="str">
         <f>VLOOKUP(B5,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="15">
         <v>3</v>
       </c>
-      <c r="K5" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L5" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="M5" s="56">
+      <c r="K5" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" s="59">
         <f ca="1" t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="N5" s="56">
+      <c r="N5" s="59">
         <f ca="1">M5*T5</f>
         <v>0.04</v>
       </c>
-      <c r="O5" s="57">
+      <c r="O5" s="60">
         <v>2.04</v>
       </c>
-      <c r="P5" s="58">
+      <c r="P5" s="59">
         <f t="shared" ref="P4:P5" si="1">O5*T5</f>
         <v>2.04</v>
       </c>
-      <c r="Q5" s="76">
+      <c r="Q5" s="57">
         <v>1.1</v>
       </c>
-      <c r="R5" s="54">
+      <c r="R5" s="57">
         <v>1.1</v>
       </c>
-      <c r="S5" s="14">
+      <c r="S5" s="15">
         <v>3</v>
       </c>
-      <c r="T5" s="66">
+      <c r="T5" s="65">
         <f>J5/S5</f>
         <v>1</v>
       </c>
-      <c r="U5" s="85" t="s">
-        <v>72</v>
-      </c>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y5" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z5" s="14">
+      <c r="U5" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y5" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z5" s="15">
         <v>110</v>
       </c>
-      <c r="AA5" s="93">
+      <c r="AA5" s="88">
         <v>0.13</v>
       </c>
     </row>
     <row r="6" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A6" s="14">
+      <c r="A6" s="15">
         <v>3</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="15" t="s">
+      <c r="B6" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="16" t="str">
+      <c r="C6" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="20" t="str">
         <f>VLOOKUP(B6,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>12-14</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="15">
         <v>2</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="33"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="15">
+        <v>2</v>
+      </c>
+      <c r="T6" s="32"/>
+      <c r="U6" s="80"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y6" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z6" s="15">
+        <v>78</v>
+      </c>
+      <c r="AA6" s="88">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="7" ht="24.95" customHeight="1" spans="1:27">
+      <c r="A7" s="15">
+        <v>4</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="30"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="76">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="54">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="14">
-        <v>2</v>
-      </c>
-      <c r="T6" s="29"/>
-      <c r="U6" s="86"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y6" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z6" s="14">
+      <c r="F7" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="AA6" s="93">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="7" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A7" s="14">
-        <v>4</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" s="16" t="str">
+      <c r="H7" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="20" t="str">
         <f>VLOOKUP(B7,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>8-14</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="15">
         <v>1</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="37"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="57">
+        <v>0.2</v>
+      </c>
+      <c r="R7" s="57">
+        <v>0.2</v>
+      </c>
+      <c r="S7" s="15">
+        <v>1</v>
+      </c>
+      <c r="T7" s="36"/>
+      <c r="U7" s="81"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y7" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z7" s="15">
+        <v>78</v>
+      </c>
+      <c r="AA7" s="88">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="8" ht="24.95" customHeight="1" spans="1:27">
+      <c r="A8" s="15">
+        <v>5</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="L7" s="34"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="76">
-        <v>0.2</v>
-      </c>
-      <c r="R7" s="54">
-        <v>0.2</v>
-      </c>
-      <c r="S7" s="14">
-        <v>1</v>
-      </c>
-      <c r="T7" s="33"/>
-      <c r="U7" s="87"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y7" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z7" s="14">
-        <v>78</v>
-      </c>
-      <c r="AA7" s="93">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="8" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A8" s="14">
-        <v>5</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="16" t="str">
+      <c r="F8" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="20" t="str">
         <f>VLOOKUP(B8,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="15">
         <v>3</v>
       </c>
-      <c r="K8" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="M8" s="51">
+      <c r="K8" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="54">
         <f ca="1" t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="N8" s="56">
+      <c r="N8" s="59">
         <f ca="1">M8*T8</f>
         <v>0.04</v>
       </c>
-      <c r="O8" s="52">
+      <c r="O8" s="55">
         <v>1.88</v>
       </c>
-      <c r="P8" s="61">
+      <c r="P8" s="55">
         <f>O8*T8</f>
         <v>1.88</v>
       </c>
-      <c r="Q8" s="76">
+      <c r="Q8" s="57">
         <v>1.55</v>
       </c>
-      <c r="R8" s="54">
+      <c r="R8" s="57">
         <v>1.55</v>
       </c>
-      <c r="S8" s="14">
+      <c r="S8" s="15">
         <v>3</v>
       </c>
-      <c r="T8" s="14">
+      <c r="T8" s="15">
         <f>J8/S8</f>
         <v>1</v>
       </c>
-      <c r="U8" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y8" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z8" s="14">
+      <c r="U8" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y8" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z8" s="15">
         <v>110</v>
       </c>
-      <c r="AA8" s="93">
+      <c r="AA8" s="88">
         <v>0.13</v>
       </c>
     </row>
     <row r="9" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A9" s="14">
+      <c r="A9" s="15">
         <v>6</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="H9" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="I9" s="16" t="str">
+      <c r="C9" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="20" t="str">
         <f>VLOOKUP(B9,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>QLDZ.0014</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="15">
         <v>100</v>
       </c>
-      <c r="K9" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L9" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="M9" s="62">
+      <c r="K9" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" s="61">
         <f ca="1" t="shared" si="0"/>
         <v>0.01</v>
       </c>
-      <c r="N9" s="56">
+      <c r="N9" s="59">
         <f ca="1">M9*T9</f>
         <v>0.01</v>
       </c>
-      <c r="O9" s="57">
+      <c r="O9" s="60">
         <v>4.3</v>
       </c>
-      <c r="P9" s="63">
+      <c r="P9" s="62">
         <f>O9*T9</f>
         <v>4.3</v>
       </c>
-      <c r="Q9" s="76">
+      <c r="Q9" s="57">
         <v>2</v>
       </c>
-      <c r="R9" s="54">
+      <c r="R9" s="57">
         <v>2</v>
       </c>
-      <c r="S9" s="14">
+      <c r="S9" s="15">
         <v>100</v>
       </c>
-      <c r="T9" s="29">
+      <c r="T9" s="32">
         <f>J9/S9</f>
         <v>1</v>
       </c>
-      <c r="U9" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y9" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z9" s="14">
+      <c r="U9" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y9" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z9" s="15">
         <v>22.6</v>
       </c>
-      <c r="AA9" s="93">
+      <c r="AA9" s="88">
         <v>0.13</v>
       </c>
     </row>
     <row r="10" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A10" s="14">
+      <c r="A10" s="15">
         <v>7</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="C10" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="I10" s="16" t="str">
+      <c r="D10" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="20" t="str">
         <f>VLOOKUP(B10,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>N510059196AA</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="15">
         <v>137</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="37"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57">
+        <v>2.1</v>
+      </c>
+      <c r="R10" s="57">
+        <v>2.1</v>
+      </c>
+      <c r="S10" s="15">
+        <v>137</v>
+      </c>
+      <c r="T10" s="36"/>
+      <c r="U10" s="81"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y10" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z10" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="AA10" s="88">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" ht="24.95" customHeight="1" spans="1:27">
+      <c r="A11" s="15">
+        <v>8</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="76">
-        <v>2.1</v>
-      </c>
-      <c r="R10" s="54">
-        <v>2.1</v>
-      </c>
-      <c r="S10" s="14">
-        <v>137</v>
-      </c>
-      <c r="T10" s="33"/>
-      <c r="U10" s="87"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y10" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z10" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="AA10" s="93">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="11" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A11" s="14">
-        <v>8</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="I11" s="16" t="str">
+      <c r="F11" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="20" t="str">
         <f>VLOOKUP(B11,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>FA2P5N1W20360133</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="15">
         <v>1</v>
       </c>
-      <c r="K11" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="M11" s="62">
+      <c r="K11" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="M11" s="61">
         <f ca="1">ROUND(EVALUATE(L11)*1000*0.000000001,2)</f>
         <v>0.02</v>
       </c>
-      <c r="N11" s="56">
+      <c r="N11" s="59">
         <f ca="1">M11*T11</f>
         <v>0.02</v>
       </c>
-      <c r="O11" s="57">
+      <c r="O11" s="60">
         <v>14</v>
       </c>
-      <c r="P11" s="63">
+      <c r="P11" s="62">
         <f>O11*T11</f>
         <v>14</v>
       </c>
-      <c r="Q11" s="76">
+      <c r="Q11" s="57">
         <v>3</v>
       </c>
-      <c r="R11" s="54">
+      <c r="R11" s="57">
         <v>3</v>
       </c>
-      <c r="S11" s="14">
+      <c r="S11" s="15">
         <v>1</v>
       </c>
-      <c r="T11" s="66">
+      <c r="T11" s="65">
         <f>J11/S11</f>
         <v>1</v>
       </c>
-      <c r="U11" s="85" t="s">
-        <v>98</v>
-      </c>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y11" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z11" s="14">
+      <c r="U11" s="79" t="s">
+        <v>101</v>
+      </c>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y11" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z11" s="15">
         <v>1140</v>
       </c>
-      <c r="AA11" s="93">
+      <c r="AA11" s="88">
         <v>0.13</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A12" s="14">
+    <row r="12" s="1" customFormat="1" ht="24.95" customHeight="1" spans="1:27">
+      <c r="A12" s="15">
         <v>9</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="C12" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="I12" s="16" t="str">
+      <c r="D12" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" s="20" t="str">
         <f>VLOOKUP(B12,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>STM86118S</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="15">
         <v>1</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="33"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="57">
+        <v>5</v>
+      </c>
+      <c r="R12" s="57">
+        <v>5</v>
+      </c>
+      <c r="S12" s="15">
+        <v>1</v>
+      </c>
+      <c r="T12" s="32"/>
+      <c r="U12" s="80"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y12" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z12" s="15">
+        <v>230</v>
+      </c>
+      <c r="AA12" s="88">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="24.95" customHeight="1" spans="1:27">
+      <c r="A13" s="15">
+        <v>10</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="L12" s="30"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="76">
-        <v>5</v>
-      </c>
-      <c r="R12" s="54">
-        <v>5</v>
-      </c>
-      <c r="S12" s="14">
-        <v>1</v>
-      </c>
-      <c r="T12" s="29"/>
-      <c r="U12" s="86"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y12" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z12" s="14">
-        <v>230</v>
-      </c>
-      <c r="AA12" s="93">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A13" s="14">
-        <v>10</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="I13" s="16" t="str">
+      <c r="H13" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13" s="20" t="str">
         <f>VLOOKUP(B13,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>STM8680</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="15">
         <v>3</v>
       </c>
-      <c r="K13" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L13" s="34"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="76">
+      <c r="K13" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="37"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57">
         <v>5</v>
       </c>
-      <c r="R13" s="54">
+      <c r="R13" s="57">
         <v>5</v>
       </c>
-      <c r="S13" s="14">
+      <c r="S13" s="15">
         <v>3</v>
       </c>
-      <c r="T13" s="33"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y13" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z13" s="14">
+      <c r="T13" s="36"/>
+      <c r="U13" s="81"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y13" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z13" s="15">
         <v>185</v>
       </c>
-      <c r="AA13" s="93">
+      <c r="AA13" s="88">
         <v>0.13</v>
       </c>
     </row>
     <row r="14" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A14" s="14">
+      <c r="A14" s="15">
         <v>11</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="B14" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="C14" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="D14" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="H14" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="I14" s="16" t="str">
+      <c r="E14" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="I14" s="20" t="str">
         <f>VLOOKUP(B14,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="15">
         <v>5</v>
       </c>
-      <c r="K14" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="M14" s="51">
+      <c r="K14" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="M14" s="54">
         <f ca="1">ROUND(EVALUATE(L14)*1000*0.000000001,2)</f>
         <v>0.01</v>
       </c>
-      <c r="N14" s="52">
+      <c r="N14" s="55">
         <f ca="1">M14*T14</f>
         <v>0.01</v>
       </c>
-      <c r="O14" s="53">
+      <c r="O14" s="56">
         <v>1.44</v>
       </c>
-      <c r="P14" s="54">
+      <c r="P14" s="57">
         <f>O14*T14</f>
         <v>1.44</v>
       </c>
-      <c r="Q14" s="76">
+      <c r="Q14" s="57">
         <v>1.23</v>
       </c>
-      <c r="R14" s="54">
+      <c r="R14" s="57">
         <v>1.23</v>
       </c>
-      <c r="S14" s="33">
+      <c r="S14" s="36">
         <v>5</v>
       </c>
-      <c r="T14" s="33">
+      <c r="T14" s="36">
         <f>J14/S14</f>
         <v>1</v>
       </c>
-      <c r="U14" s="84" t="s">
-        <v>114</v>
-      </c>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y14" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z14" s="14">
+      <c r="U14" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y14" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z14" s="15">
         <v>350</v>
       </c>
-      <c r="AA14" s="93">
+      <c r="AA14" s="88">
         <v>0.13</v>
       </c>
     </row>
     <row r="15" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A15" s="14">
+      <c r="A15" s="15">
         <v>12</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="G15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="I15" s="16" t="str">
+      <c r="D15" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" s="20" t="str">
         <f>VLOOKUP(B15,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>900M-T-sk</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="15">
         <v>30</v>
       </c>
-      <c r="K15" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L15" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="M15" s="56">
+      <c r="K15" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="M15" s="59">
         <f ca="1">ROUND(EVALUATE(L15)*1000*0.000000001,2)</f>
         <v>0.01</v>
       </c>
-      <c r="N15" s="56">
+      <c r="N15" s="59">
         <f ca="1">M15*T15</f>
         <v>0.01</v>
       </c>
-      <c r="O15" s="66">
+      <c r="O15" s="65">
         <v>7.55</v>
       </c>
-      <c r="P15" s="67">
+      <c r="P15" s="65">
         <f>O15*T15</f>
         <v>7.55</v>
       </c>
-      <c r="Q15" s="76">
+      <c r="Q15" s="57">
         <v>0.15</v>
       </c>
-      <c r="R15" s="54">
+      <c r="R15" s="57">
         <v>0.15</v>
       </c>
-      <c r="S15" s="14">
+      <c r="S15" s="15">
         <v>30</v>
       </c>
-      <c r="T15" s="29">
+      <c r="T15" s="32">
         <f>J15/S15</f>
         <v>1</v>
       </c>
-      <c r="U15" s="85" t="s">
+      <c r="U15" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y15" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z15" s="15">
+        <v>5</v>
+      </c>
+      <c r="AA15" s="88">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" ht="24.95" customHeight="1" spans="1:27">
+      <c r="A16" s="15">
+        <v>13</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y15" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z15" s="14">
-        <v>5</v>
-      </c>
-      <c r="AA15" s="93">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="16" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A16" s="14">
-        <v>13</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="I16" s="16" t="str">
+      <c r="H16" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I16" s="20" t="str">
         <f>VLOOKUP(B16,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>900M-T-B</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="15">
         <v>500</v>
       </c>
-      <c r="K16" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L16" s="30"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="68">
+      <c r="K16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" s="33"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32">
         <f t="shared" ref="P16:P22" si="2">O16*T16</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="76">
+      <c r="Q16" s="57">
         <v>2.5</v>
       </c>
-      <c r="R16" s="54">
+      <c r="R16" s="57">
         <v>2.5</v>
       </c>
-      <c r="S16" s="14">
+      <c r="S16" s="15">
         <v>500</v>
       </c>
-      <c r="T16" s="29"/>
-      <c r="U16" s="86"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y16" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z16" s="14">
+      <c r="T16" s="32"/>
+      <c r="U16" s="80"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y16" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z16" s="15">
         <v>5</v>
       </c>
-      <c r="AA16" s="93">
+      <c r="AA16" s="88">
         <v>0.01</v>
       </c>
     </row>
     <row r="17" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A17" s="14">
+      <c r="A17" s="15">
         <v>14</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="I17" s="16" t="str">
+      <c r="B17" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I17" s="20" t="str">
         <f>VLOOKUP(B17,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>900M-T-4C</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="15">
         <v>400</v>
       </c>
-      <c r="K17" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L17" s="30"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="68">
+      <c r="K17" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L17" s="33"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="76">
+      <c r="Q17" s="57">
         <v>2</v>
       </c>
-      <c r="R17" s="54">
+      <c r="R17" s="57">
         <v>2</v>
       </c>
-      <c r="S17" s="14">
+      <c r="S17" s="15">
         <v>400</v>
       </c>
-      <c r="T17" s="29"/>
-      <c r="U17" s="86"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y17" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z17" s="14">
+      <c r="T17" s="32"/>
+      <c r="U17" s="80"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y17" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z17" s="15">
         <v>5</v>
       </c>
-      <c r="AA17" s="93">
+      <c r="AA17" s="88">
         <v>0.01</v>
       </c>
     </row>
     <row r="18" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A18" s="14">
+      <c r="A18" s="15">
         <v>15</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="I18" s="16" t="str">
+      <c r="B18" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="I18" s="20" t="str">
         <f>VLOOKUP(B18,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>900M-T-2C</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="15">
         <v>40</v>
       </c>
-      <c r="K18" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L18" s="30"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="68">
+      <c r="K18" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L18" s="33"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="76">
+      <c r="Q18" s="57">
         <v>0.2</v>
       </c>
-      <c r="R18" s="54">
+      <c r="R18" s="57">
         <v>0.2</v>
       </c>
-      <c r="S18" s="14">
+      <c r="S18" s="15">
         <v>40</v>
       </c>
-      <c r="T18" s="29"/>
-      <c r="U18" s="86"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y18" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z18" s="14">
+      <c r="T18" s="32"/>
+      <c r="U18" s="80"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y18" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z18" s="15">
         <v>5</v>
       </c>
-      <c r="AA18" s="93">
+      <c r="AA18" s="88">
         <v>0.01</v>
       </c>
     </row>
     <row r="19" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A19" s="14">
+      <c r="A19" s="15">
         <v>16</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="I19" s="16" t="str">
+      <c r="B19" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I19" s="20" t="str">
         <f>VLOOKUP(B19,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>900-T-1.2D</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="15">
         <v>40</v>
       </c>
-      <c r="K19" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L19" s="30"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="68">
+      <c r="K19" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="33"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="76">
+      <c r="Q19" s="57">
         <v>0.2</v>
       </c>
-      <c r="R19" s="54">
+      <c r="R19" s="57">
         <v>0.2</v>
       </c>
-      <c r="S19" s="14">
+      <c r="S19" s="15">
         <v>40</v>
       </c>
-      <c r="T19" s="29"/>
-      <c r="U19" s="86"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y19" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z19" s="14">
+      <c r="T19" s="32"/>
+      <c r="U19" s="80"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y19" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z19" s="15">
         <v>3</v>
       </c>
-      <c r="AA19" s="93">
+      <c r="AA19" s="88">
         <v>0.01</v>
       </c>
     </row>
     <row r="20" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A20" s="14">
+      <c r="A20" s="15">
         <v>17</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="I20" s="16" t="str">
+      <c r="B20" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="I20" s="20" t="str">
         <f>VLOOKUP(B20,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>WRNT-013</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="15">
         <v>140</v>
       </c>
-      <c r="K20" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L20" s="30"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="68">
+      <c r="K20" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" s="33"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="76">
+      <c r="Q20" s="57">
         <v>0.7</v>
       </c>
-      <c r="R20" s="54">
+      <c r="R20" s="57">
         <v>0.7</v>
       </c>
-      <c r="S20" s="14">
+      <c r="S20" s="15">
         <v>140</v>
       </c>
-      <c r="T20" s="29"/>
-      <c r="U20" s="86"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y20" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z20" s="14">
+      <c r="T20" s="32"/>
+      <c r="U20" s="80"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y20" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z20" s="15">
         <v>1.2</v>
       </c>
-      <c r="AA20" s="93">
+      <c r="AA20" s="88">
         <v>0.01</v>
       </c>
     </row>
     <row r="21" ht="24.95" customHeight="1" spans="1:28">
-      <c r="A21" s="14">
+      <c r="A21" s="15">
         <v>18</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="I21" s="16" t="str">
+      <c r="B21" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I21" s="20" t="str">
         <f>VLOOKUP(B21,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="15">
         <v>250</v>
       </c>
-      <c r="K21" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L21" s="34"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="69">
+      <c r="K21" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L21" s="37"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="76">
+      <c r="Q21" s="57">
         <v>1.25</v>
       </c>
-      <c r="R21" s="54">
+      <c r="R21" s="57">
         <v>1.25</v>
       </c>
-      <c r="S21" s="14">
+      <c r="S21" s="15">
         <v>250</v>
       </c>
-      <c r="T21" s="33"/>
-      <c r="U21" s="87"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y21" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z21" s="14">
+      <c r="T21" s="36"/>
+      <c r="U21" s="81"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y21" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z21" s="15">
         <v>0.99</v>
       </c>
-      <c r="AA21" s="93">
+      <c r="AA21" s="88">
         <v>0.01</v>
       </c>
-      <c r="AB21" s="13" t="s">
-        <v>137</v>
+      <c r="AB21" s="10" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="22" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A22" s="14">
+      <c r="A22" s="15">
         <v>19</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="G22" s="18" t="s">
+      <c r="B22" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="H22" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="I22" s="16" t="str">
+      <c r="C22" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I22" s="20" t="str">
         <f>VLOOKUP(B22,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="15">
         <v>388</v>
       </c>
-      <c r="K22" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L22" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="M22" s="66">
+      <c r="K22" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L22" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="M22" s="65">
         <f ca="1">ROUND(EVALUATE(L22)*1000*0.000000001,2)</f>
         <v>0.02</v>
       </c>
-      <c r="N22" s="66">
+      <c r="N22" s="65">
         <f ca="1">M22*T22</f>
         <v>0.02</v>
       </c>
-      <c r="O22" s="66">
+      <c r="O22" s="65">
         <v>20</v>
       </c>
-      <c r="P22" s="67">
+      <c r="P22" s="65">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="Q22" s="76">
+      <c r="Q22" s="57">
         <v>3.49</v>
       </c>
-      <c r="R22" s="54">
+      <c r="R22" s="57">
         <v>3.49</v>
       </c>
-      <c r="S22" s="14">
+      <c r="S22" s="15">
         <v>388</v>
       </c>
-      <c r="T22" s="29">
+      <c r="T22" s="32">
         <f>J22/S22</f>
         <v>1</v>
       </c>
-      <c r="U22" s="85" t="s">
+      <c r="U22" s="79" t="s">
+        <v>146</v>
+      </c>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y22" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z22" s="15">
+        <v>1.32</v>
+      </c>
+      <c r="AA22" s="88">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="23" ht="24.95" customHeight="1" spans="1:27">
+      <c r="A23" s="15">
+        <v>20</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y22" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z22" s="14">
-        <v>1.32</v>
-      </c>
-      <c r="AA22" s="93">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="23" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A23" s="14">
-        <v>20</v>
-      </c>
-      <c r="B23" s="15" t="s">
+      <c r="G23" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="I23" s="16" t="str">
+      <c r="H23" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I23" s="20" t="str">
         <f>VLOOKUP(B23,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="15">
         <v>457</v>
       </c>
-      <c r="K23" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L23" s="30"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="76">
+      <c r="K23" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L23" s="33"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="57">
         <v>4.11</v>
       </c>
-      <c r="R23" s="54">
+      <c r="R23" s="57">
         <v>4.11</v>
       </c>
-      <c r="S23" s="14">
+      <c r="S23" s="15">
         <v>457</v>
       </c>
-      <c r="T23" s="29"/>
-      <c r="U23" s="86"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y23" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z23" s="14">
+      <c r="T23" s="32"/>
+      <c r="U23" s="80"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y23" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z23" s="15">
         <v>1.32</v>
       </c>
-      <c r="AA23" s="93">
+      <c r="AA23" s="88">
         <v>0.13</v>
       </c>
     </row>
     <row r="24" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A24" s="14">
+      <c r="A24" s="15">
         <v>21</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="I24" s="16" t="str">
+      <c r="B24" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I24" s="20" t="str">
         <f>VLOOKUP(B24,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="15">
         <v>458</v>
       </c>
-      <c r="K24" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L24" s="30"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="76">
+      <c r="K24" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L24" s="33"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="57">
         <v>4.12</v>
       </c>
-      <c r="R24" s="54">
+      <c r="R24" s="57">
         <v>4.12</v>
       </c>
-      <c r="S24" s="14">
+      <c r="S24" s="15">
         <v>458</v>
       </c>
-      <c r="T24" s="29"/>
-      <c r="U24" s="86"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y24" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z24" s="14">
+      <c r="T24" s="32"/>
+      <c r="U24" s="80"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y24" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z24" s="15">
         <v>1.32</v>
       </c>
-      <c r="AA24" s="93">
+      <c r="AA24" s="88">
         <v>0.13</v>
       </c>
     </row>
     <row r="25" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A25" s="14">
+      <c r="A25" s="15">
         <v>22</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="I25" s="16" t="str">
+      <c r="B25" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" s="20" t="str">
         <f>VLOOKUP(B25,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="15">
         <v>287</v>
       </c>
-      <c r="K25" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L25" s="30"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="76">
+      <c r="K25" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L25" s="33"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="57">
         <v>2.58</v>
       </c>
-      <c r="R25" s="54">
+      <c r="R25" s="57">
         <v>2.58</v>
       </c>
-      <c r="S25" s="14">
+      <c r="S25" s="15">
         <v>287</v>
       </c>
-      <c r="T25" s="29"/>
-      <c r="U25" s="86"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y25" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z25" s="14">
+      <c r="T25" s="32"/>
+      <c r="U25" s="80"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y25" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z25" s="15">
         <v>1.32</v>
       </c>
-      <c r="AA25" s="93">
+      <c r="AA25" s="88">
         <v>0.13</v>
       </c>
     </row>
     <row r="26" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A26" s="14">
+      <c r="A26" s="15">
         <v>23</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="I26" s="16" t="str">
+      <c r="B26" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="I26" s="20" t="str">
         <f>VLOOKUP(B26,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="15">
         <v>40</v>
       </c>
-      <c r="K26" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L26" s="30"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="76">
+      <c r="K26" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L26" s="33"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="57">
         <v>0.36</v>
       </c>
-      <c r="R26" s="54">
+      <c r="R26" s="57">
         <v>0.36</v>
       </c>
-      <c r="S26" s="14">
+      <c r="S26" s="15">
         <v>40</v>
       </c>
-      <c r="T26" s="29"/>
-      <c r="U26" s="86"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y26" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z26" s="14">
+      <c r="T26" s="32"/>
+      <c r="U26" s="80"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y26" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z26" s="15">
         <v>1.32</v>
       </c>
-      <c r="AA26" s="93">
+      <c r="AA26" s="88">
         <v>0.13</v>
       </c>
     </row>
     <row r="27" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A27" s="14">
+      <c r="A27" s="15">
         <v>24</v>
       </c>
-      <c r="B27" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="I27" s="16" t="str">
+      <c r="B27" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="I27" s="20" t="str">
         <f>VLOOKUP(B27,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="15">
         <v>60</v>
       </c>
-      <c r="K27" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L27" s="30"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="76">
+      <c r="K27" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L27" s="33"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="57">
         <v>0.54</v>
       </c>
-      <c r="R27" s="54">
+      <c r="R27" s="57">
         <v>0.54</v>
       </c>
-      <c r="S27" s="14">
+      <c r="S27" s="15">
         <v>60</v>
       </c>
-      <c r="T27" s="29"/>
-      <c r="U27" s="86"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y27" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z27" s="14">
+      <c r="T27" s="32"/>
+      <c r="U27" s="80"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y27" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z27" s="15">
         <v>1.32</v>
       </c>
-      <c r="AA27" s="93">
+      <c r="AA27" s="88">
         <v>0.13</v>
       </c>
     </row>
     <row r="28" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A28" s="14">
+      <c r="A28" s="15">
         <v>25</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="I28" s="16" t="str">
+      <c r="I28" s="20" t="str">
         <f>VLOOKUP(B28,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28" s="15">
         <v>50</v>
       </c>
-      <c r="K28" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L28" s="30"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="76">
+      <c r="K28" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L28" s="33"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="57">
         <v>0.45</v>
       </c>
-      <c r="R28" s="54">
+      <c r="R28" s="57">
         <v>0.45</v>
       </c>
-      <c r="S28" s="14">
+      <c r="S28" s="15">
         <v>50</v>
       </c>
-      <c r="T28" s="29"/>
-      <c r="U28" s="86"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y28" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z28" s="14">
+      <c r="T28" s="32"/>
+      <c r="U28" s="80"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y28" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z28" s="15">
         <v>1.32</v>
       </c>
-      <c r="AA28" s="93">
+      <c r="AA28" s="88">
         <v>0.13</v>
       </c>
     </row>
     <row r="29" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A29" s="14">
+      <c r="A29" s="15">
         <v>26</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="I29" s="16" t="str">
+      <c r="B29" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I29" s="20" t="str">
         <f>VLOOKUP(B29,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J29" s="15">
         <v>50</v>
       </c>
-      <c r="K29" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L29" s="30"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="68"/>
-      <c r="Q29" s="76">
+      <c r="K29" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L29" s="33"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="57">
         <v>0.45</v>
       </c>
-      <c r="R29" s="54">
+      <c r="R29" s="57">
         <v>0.45</v>
       </c>
-      <c r="S29" s="14">
+      <c r="S29" s="15">
         <v>50</v>
       </c>
-      <c r="T29" s="29"/>
-      <c r="U29" s="86"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y29" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z29" s="14">
+      <c r="T29" s="32"/>
+      <c r="U29" s="80"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y29" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z29" s="15">
         <v>1.32</v>
       </c>
-      <c r="AA29" s="93">
+      <c r="AA29" s="88">
         <v>0.13</v>
       </c>
     </row>
     <row r="30" ht="24.95" customHeight="1" spans="1:27">
-      <c r="A30" s="14">
+      <c r="A30" s="15">
         <v>27</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="I30" s="16" t="str">
+      <c r="B30" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I30" s="20" t="str">
         <f>VLOOKUP(B30,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J30" s="15">
         <v>110</v>
       </c>
-      <c r="K30" s="14" t="s">
+      <c r="K30" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L30" s="37"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="57">
+        <v>0.99</v>
+      </c>
+      <c r="R30" s="57">
+        <v>0.99</v>
+      </c>
+      <c r="S30" s="15">
+        <v>110</v>
+      </c>
+      <c r="T30" s="36"/>
+      <c r="U30" s="81"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y30" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z30" s="15">
+        <v>1.32</v>
+      </c>
+      <c r="AA30" s="88">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:29">
+      <c r="A31" s="15">
+        <v>28</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="L30" s="34"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="69"/>
-      <c r="Q30" s="76">
-        <v>0.99</v>
-      </c>
-      <c r="R30" s="54">
-        <v>0.99</v>
-      </c>
-      <c r="S30" s="14">
-        <v>110</v>
-      </c>
-      <c r="T30" s="33"/>
-      <c r="U30" s="87"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="16"/>
-      <c r="X30" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y30" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z30" s="14">
-        <v>1.32</v>
-      </c>
-      <c r="AA30" s="93">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:29">
-      <c r="A31" s="14">
-        <v>28</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="H31" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="I31" s="16" t="str">
+      <c r="F31" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="I31" s="20" t="str">
         <f>VLOOKUP(B31,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J31" s="70">
+      <c r="J31" s="66">
         <v>2040</v>
       </c>
-      <c r="K31" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="L31" s="71" t="s">
-        <v>163</v>
-      </c>
-      <c r="M31" s="51">
+      <c r="K31" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="L31" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="M31" s="54">
         <f ca="1">ROUND(EVALUATE(L31)*1000*0.000000001,2)</f>
         <v>0.09</v>
       </c>
-      <c r="N31" s="71">
+      <c r="N31" s="67">
         <f ca="1">M31*T31</f>
         <v>6.12</v>
       </c>
-      <c r="O31" s="71" t="s">
-        <v>164</v>
-      </c>
-      <c r="P31" s="72">
+      <c r="O31" s="67" t="s">
+        <v>167</v>
+      </c>
+      <c r="P31" s="68">
         <f>O31*T31</f>
         <v>1204.28</v>
       </c>
-      <c r="Q31" s="76">
+      <c r="Q31" s="57">
         <v>1200</v>
       </c>
-      <c r="R31" s="54">
+      <c r="R31" s="57">
         <v>1200</v>
       </c>
-      <c r="S31" s="81" t="s">
-        <v>165</v>
-      </c>
-      <c r="T31" s="14">
+      <c r="S31" s="74" t="s">
+        <v>168</v>
+      </c>
+      <c r="T31" s="15">
         <f>J31/S31</f>
         <v>68</v>
       </c>
-      <c r="U31" s="84" t="s">
-        <v>166</v>
-      </c>
-      <c r="V31" s="88"/>
-      <c r="W31" s="88"/>
-      <c r="X31" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y31" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z31" s="94">
+      <c r="U31" s="77" t="s">
+        <v>169</v>
+      </c>
+      <c r="V31" s="82"/>
+      <c r="W31" s="82"/>
+      <c r="X31" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y31" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z31" s="89">
         <v>14.8</v>
       </c>
-      <c r="AA31" s="93">
+      <c r="AA31" s="88">
         <v>0.13</v>
       </c>
-      <c r="AB31" s="95"/>
-      <c r="AC31" s="96"/>
+      <c r="AB31" s="90"/>
+      <c r="AC31" s="91"/>
     </row>
     <row r="32" customHeight="1" spans="1:29">
-      <c r="A32" s="14">
+      <c r="A32" s="15">
         <v>29</v>
       </c>
-      <c r="B32" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="H32" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="I32" s="16" t="str">
+      <c r="B32" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="I32" s="20" t="str">
         <f>VLOOKUP(B32,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J32" s="70">
+      <c r="J32" s="66">
         <v>2800</v>
       </c>
-      <c r="K32" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="L32" s="71" t="s">
-        <v>169</v>
-      </c>
-      <c r="M32" s="51">
+      <c r="K32" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="L32" s="67" t="s">
+        <v>172</v>
+      </c>
+      <c r="M32" s="54">
         <f ca="1">ROUND(EVALUATE(L32)*1000*0.000000001,2)</f>
         <v>0.07</v>
       </c>
-      <c r="N32" s="56">
+      <c r="N32" s="59">
         <f ca="1">M32*T32</f>
         <v>3.92</v>
       </c>
-      <c r="O32" s="52">
+      <c r="O32" s="55">
         <v>15.5</v>
       </c>
-      <c r="P32" s="72">
+      <c r="P32" s="68">
         <f>O32*T32</f>
         <v>868</v>
       </c>
-      <c r="Q32" s="76">
+      <c r="Q32" s="57">
         <v>866</v>
       </c>
-      <c r="R32" s="54">
+      <c r="R32" s="57">
         <v>866</v>
       </c>
-      <c r="S32" s="81" t="s">
-        <v>170</v>
-      </c>
-      <c r="T32" s="14">
+      <c r="S32" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="T32" s="15">
         <f>J32/S32</f>
         <v>56</v>
       </c>
-      <c r="U32" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="V32" s="88"/>
-      <c r="W32" s="88"/>
-      <c r="X32" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y32" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z32" s="94">
+      <c r="U32" s="77" t="s">
+        <v>174</v>
+      </c>
+      <c r="V32" s="82"/>
+      <c r="W32" s="82"/>
+      <c r="X32" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y32" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z32" s="89">
         <v>7.3</v>
       </c>
-      <c r="AA32" s="93">
+      <c r="AA32" s="88">
         <v>0.13</v>
       </c>
-      <c r="AB32" s="95"/>
-      <c r="AC32" s="96"/>
-    </row>
-    <row r="33" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A33" s="14">
+      <c r="AB32" s="90"/>
+      <c r="AC32" s="91"/>
+    </row>
+    <row r="33" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A33" s="15">
         <v>30</v>
       </c>
-      <c r="B33" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="24" t="s">
+      <c r="B33" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="G33" s="21" t="s">
+      <c r="C33" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="H33" s="22" t="s">
+      <c r="D33" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="I33" s="16" t="str">
+      <c r="E33" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="H33" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="I33" s="20" t="str">
         <f>VLOOKUP(B33,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>AT-TSSOP20-CMS</v>
       </c>
-      <c r="J33" s="73">
+      <c r="J33" s="69">
         <v>2</v>
       </c>
-      <c r="K33" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L33" s="71" t="s">
-        <v>178</v>
-      </c>
-      <c r="M33" s="52">
+      <c r="K33" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L33" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="M33" s="55">
         <f ca="1">ROUND(EVALUATE(L33)*1000*0.000000001,2)</f>
         <v>0.01</v>
       </c>
-      <c r="N33" s="56">
+      <c r="N33" s="59">
         <f ca="1">M33*T33</f>
         <v>0.01</v>
       </c>
-      <c r="O33" s="57">
+      <c r="O33" s="60">
         <v>1</v>
       </c>
-      <c r="P33" s="63">
+      <c r="P33" s="62">
         <f>O33*T33</f>
         <v>1</v>
       </c>
-      <c r="Q33" s="76">
+      <c r="Q33" s="57">
         <v>0.3</v>
       </c>
-      <c r="R33" s="54">
+      <c r="R33" s="57">
         <v>0.3</v>
       </c>
-      <c r="S33" s="14">
+      <c r="S33" s="15">
         <v>2</v>
       </c>
-      <c r="T33" s="66">
+      <c r="T33" s="65">
         <f>J33/S33</f>
         <v>1</v>
       </c>
-      <c r="U33" s="85" t="s">
-        <v>179</v>
-      </c>
-      <c r="V33" s="88"/>
-      <c r="W33" s="88"/>
-      <c r="X33" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y33" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z33" s="94">
+      <c r="U33" s="79" t="s">
+        <v>182</v>
+      </c>
+      <c r="V33" s="82"/>
+      <c r="W33" s="82"/>
+      <c r="X33" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y33" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z33" s="89">
         <v>580</v>
       </c>
-      <c r="AA33" s="93">
+      <c r="AA33" s="88">
         <v>0.13</v>
       </c>
-      <c r="AB33" s="96"/>
-      <c r="AC33" s="96"/>
-    </row>
-    <row r="34" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A34" s="14">
+      <c r="AB33" s="91"/>
+      <c r="AC33" s="91"/>
+    </row>
+    <row r="34" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A34" s="15">
         <v>31</v>
       </c>
-      <c r="B34" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="G34" s="26" t="s">
+      <c r="B34" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="H34" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="I34" s="16" t="str">
+      <c r="C34" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="I34" s="20" t="str">
         <f>VLOOKUP(B34,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>KLV-M913A-A10</v>
       </c>
-      <c r="J34" s="73">
+      <c r="J34" s="69">
         <v>5</v>
       </c>
-      <c r="K34" s="14" t="s">
+      <c r="K34" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L34" s="67"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="57">
+        <v>0.6</v>
+      </c>
+      <c r="R34" s="57">
+        <v>0.6</v>
+      </c>
+      <c r="S34" s="15">
+        <v>5</v>
+      </c>
+      <c r="T34" s="32"/>
+      <c r="U34" s="80"/>
+      <c r="V34" s="82"/>
+      <c r="W34" s="82"/>
+      <c r="X34" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y34" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z34" s="92">
+        <v>80</v>
+      </c>
+      <c r="AA34" s="93">
+        <v>0.13</v>
+      </c>
+      <c r="AB34" s="91"/>
+      <c r="AC34" s="91"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:29">
+      <c r="A35" s="15">
+        <v>32</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="E35" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="L34" s="71"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="63"/>
-      <c r="Q34" s="76">
-        <v>0.6</v>
-      </c>
-      <c r="R34" s="54">
-        <v>0.6</v>
-      </c>
-      <c r="S34" s="14">
-        <v>5</v>
-      </c>
-      <c r="T34" s="29"/>
-      <c r="U34" s="86"/>
-      <c r="V34" s="88"/>
-      <c r="W34" s="88"/>
-      <c r="X34" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y34" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z34" s="97">
-        <v>80</v>
-      </c>
-      <c r="AA34" s="98">
-        <v>0.13</v>
-      </c>
-      <c r="AB34" s="96"/>
-      <c r="AC34" s="96"/>
-    </row>
-    <row r="35" customHeight="1" spans="1:29">
-      <c r="A35" s="14">
-        <v>32</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F35" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="G35" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="H35" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="I35" s="16" t="str">
+      <c r="F35" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="G35" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="I35" s="20" t="str">
         <f>VLOOKUP(B35,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J35" s="74">
+      <c r="J35" s="70">
         <v>3</v>
       </c>
-      <c r="K35" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="L35" s="71" t="s">
-        <v>191</v>
-      </c>
-      <c r="M35" s="51">
+      <c r="K35" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="L35" s="67" t="s">
+        <v>194</v>
+      </c>
+      <c r="M35" s="54">
         <f ca="1">ROUND(EVALUATE(L35)*1000*0.000000001,2)</f>
         <v>0.06</v>
       </c>
-      <c r="N35" s="56">
+      <c r="N35" s="59">
         <f ca="1" t="shared" ref="N35:N39" si="3">M35*T35</f>
         <v>0.06</v>
       </c>
-      <c r="O35" s="52">
+      <c r="O35" s="55">
         <v>34.24</v>
       </c>
-      <c r="P35" s="75">
-        <v>66.1</v>
-      </c>
-      <c r="Q35" s="75">
-        <f>SUM(P35:P37)</f>
-        <v>66.1</v>
-      </c>
-      <c r="R35" s="63">
+      <c r="P35" s="71">
+        <f>SUM(O35:O37)</f>
+        <v>66.02</v>
+      </c>
+      <c r="Q35" s="62">
+        <v>63</v>
+      </c>
+      <c r="R35" s="62">
         <v>64.2</v>
       </c>
-      <c r="S35" s="79" t="s">
-        <v>192</v>
-      </c>
-      <c r="T35" s="14">
+      <c r="S35" s="72" t="s">
+        <v>195</v>
+      </c>
+      <c r="T35" s="15">
         <f>J35/S35</f>
         <v>1</v>
       </c>
-      <c r="U35" s="84" t="s">
-        <v>193</v>
-      </c>
-      <c r="V35" s="88"/>
-      <c r="W35" s="88"/>
-      <c r="X35" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y35" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z35" s="97">
+      <c r="U35" s="77" t="s">
+        <v>196</v>
+      </c>
+      <c r="V35" s="82"/>
+      <c r="W35" s="82"/>
+      <c r="X35" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y35" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z35" s="92">
         <v>1160</v>
       </c>
-      <c r="AA35" s="98">
+      <c r="AA35" s="93">
         <v>0.13</v>
       </c>
-      <c r="AB35" s="95" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC35" s="96"/>
+      <c r="AB35" s="90" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC35" s="91"/>
     </row>
     <row r="36" customHeight="1" spans="1:29">
-      <c r="A36" s="14">
+      <c r="A36" s="15">
         <v>33</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="I36" s="16"/>
-      <c r="J36" s="74"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="M36" s="51">
+      <c r="B36" s="31"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="I36" s="20"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="M36" s="54">
         <f ca="1">ROUND(EVALUATE(L36)*1000*0.000000001,2)</f>
         <v>0.03</v>
       </c>
-      <c r="N36" s="56">
+      <c r="N36" s="59">
         <f ca="1" t="shared" si="3"/>
         <v>0.03</v>
       </c>
-      <c r="O36" s="53">
+      <c r="O36" s="56">
         <v>18.4</v>
       </c>
-      <c r="P36" s="75"/>
-      <c r="Q36" s="75">
-        <v>205</v>
-      </c>
-      <c r="R36" s="63"/>
-      <c r="S36" s="80"/>
-      <c r="T36" s="14">
+      <c r="P36" s="62"/>
+      <c r="Q36" s="62"/>
+      <c r="R36" s="62"/>
+      <c r="S36" s="73"/>
+      <c r="T36" s="15">
         <f>J35/S35</f>
         <v>1</v>
       </c>
-      <c r="U36" s="84" t="s">
-        <v>197</v>
-      </c>
-      <c r="V36" s="88"/>
-      <c r="W36" s="88"/>
-      <c r="X36" s="30"/>
-      <c r="Y36" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z36" s="99"/>
-      <c r="AA36" s="100"/>
-      <c r="AB36" s="95"/>
-      <c r="AC36" s="96"/>
+      <c r="U36" s="77" t="s">
+        <v>200</v>
+      </c>
+      <c r="V36" s="82"/>
+      <c r="W36" s="82"/>
+      <c r="X36" s="33"/>
+      <c r="Y36" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z36" s="94"/>
+      <c r="AA36" s="95"/>
+      <c r="AB36" s="90"/>
+      <c r="AC36" s="91"/>
     </row>
     <row r="37" customHeight="1" spans="1:29">
-      <c r="A37" s="14">
+      <c r="A37" s="15">
         <v>34</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="I37" s="16"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="71" t="s">
-        <v>199</v>
-      </c>
-      <c r="M37" s="51">
+      <c r="B37" s="23"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="I37" s="20"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="M37" s="54">
         <f ca="1">ROUND(EVALUATE(L37)*1000*0.000000001,2)</f>
         <v>0.05</v>
       </c>
-      <c r="N37" s="56">
+      <c r="N37" s="59">
         <f ca="1" t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="O37" s="53">
+      <c r="O37" s="56">
         <v>13.38</v>
       </c>
-      <c r="P37" s="76"/>
-      <c r="Q37" s="76">
-        <v>270</v>
-      </c>
-      <c r="R37" s="54"/>
-      <c r="S37" s="81"/>
-      <c r="T37" s="14">
+      <c r="P37" s="57"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="57"/>
+      <c r="S37" s="74"/>
+      <c r="T37" s="15">
         <f>J35/S35</f>
         <v>1</v>
       </c>
-      <c r="U37" s="84" t="s">
-        <v>200</v>
-      </c>
-      <c r="V37" s="88"/>
-      <c r="W37" s="88"/>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z37" s="101"/>
-      <c r="AA37" s="102"/>
-      <c r="AB37" s="95"/>
-      <c r="AC37" s="96"/>
+      <c r="U37" s="77" t="s">
+        <v>203</v>
+      </c>
+      <c r="V37" s="82"/>
+      <c r="W37" s="82"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z37" s="96"/>
+      <c r="AA37" s="97"/>
+      <c r="AB37" s="90"/>
+      <c r="AC37" s="91"/>
     </row>
     <row r="38" customHeight="1" spans="1:29">
-      <c r="A38" s="14">
+      <c r="A38" s="15">
         <v>35</v>
       </c>
-      <c r="B38" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F38" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="G38" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="H38" s="27" t="s">
+      <c r="B38" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="I38" s="16" t="str">
+      <c r="C38" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="I38" s="20" t="str">
         <f>VLOOKUP(B38,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J38" s="74">
+      <c r="J38" s="70">
         <v>12</v>
       </c>
-      <c r="K38" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="L38" s="71" t="s">
-        <v>206</v>
-      </c>
-      <c r="M38" s="51">
+      <c r="K38" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="L38" s="67" t="s">
+        <v>209</v>
+      </c>
+      <c r="M38" s="54">
         <f ca="1" t="shared" ref="M38:M50" si="4">ROUND(EVALUATE(L38)*1000*0.000000001,2)</f>
         <v>0.05</v>
       </c>
-      <c r="N38" s="52">
+      <c r="N38" s="55">
         <f ca="1" t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="O38" s="52">
+      <c r="O38" s="55">
         <v>34.91</v>
       </c>
-      <c r="P38" s="72">
+      <c r="P38" s="68">
         <f>O38*T38</f>
         <v>34.91</v>
       </c>
-      <c r="Q38" s="76">
+      <c r="Q38" s="57">
         <v>34</v>
       </c>
-      <c r="R38" s="54">
+      <c r="R38" s="57">
         <v>34</v>
       </c>
-      <c r="S38" s="71" t="s">
-        <v>207</v>
-      </c>
-      <c r="T38" s="14">
+      <c r="S38" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="T38" s="15">
         <v>1</v>
       </c>
-      <c r="U38" s="84" t="s">
-        <v>208</v>
-      </c>
-      <c r="V38" s="14"/>
-      <c r="W38" s="14"/>
-      <c r="X38" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y38" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z38" s="94">
+      <c r="U38" s="77" t="s">
+        <v>211</v>
+      </c>
+      <c r="V38" s="15"/>
+      <c r="W38" s="15"/>
+      <c r="X38" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y38" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z38" s="89">
         <v>1300</v>
       </c>
-      <c r="AA38" s="93">
+      <c r="AA38" s="88">
         <v>0.13</v>
       </c>
-      <c r="AB38" s="95"/>
-      <c r="AC38" s="96"/>
-    </row>
-    <row r="39" s="3" customFormat="1" ht="26.1" customHeight="1" spans="1:28">
-      <c r="A39" s="37">
+      <c r="AB38" s="90"/>
+      <c r="AC38" s="91"/>
+    </row>
+    <row r="39" ht="26.1" customHeight="1" spans="1:27">
+      <c r="A39" s="15">
         <v>36</v>
       </c>
-      <c r="B39" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="C39" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="D39" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="E39" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F39" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="G39" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="H39" s="39" t="s">
+      <c r="B39" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="I39" s="77" t="str">
+      <c r="C39" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="E39" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="G39" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="H39" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="I39" s="20" t="str">
         <f>VLOOKUP(B39,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J39" s="67">
+      <c r="J39" s="65">
         <v>9</v>
       </c>
-      <c r="K39" s="67" t="s">
-        <v>190</v>
-      </c>
-      <c r="L39" s="78" t="s">
-        <v>213</v>
-      </c>
-      <c r="M39" s="61">
+      <c r="K39" s="65" t="s">
+        <v>193</v>
+      </c>
+      <c r="L39" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="M39" s="54">
         <f ca="1" t="shared" si="4"/>
         <v>0.01</v>
       </c>
-      <c r="N39" s="61">
+      <c r="N39" s="55">
         <f ca="1" t="shared" si="3"/>
         <v>0.01</v>
       </c>
-      <c r="O39" s="61">
+      <c r="O39" s="55">
         <v>10.63</v>
       </c>
-      <c r="P39" s="72">
-        <v>206</v>
-      </c>
-      <c r="Q39" s="63"/>
-      <c r="R39" s="63">
+      <c r="P39" s="71">
+        <f>SUM(O39:O46)</f>
+        <v>207.46</v>
+      </c>
+      <c r="Q39" s="62">
         <v>205</v>
       </c>
-      <c r="S39" s="68">
+      <c r="R39" s="62">
+        <v>205</v>
+      </c>
+      <c r="S39" s="32">
         <v>9</v>
       </c>
-      <c r="T39" s="37">
+      <c r="T39" s="15">
         <f>J39/S39</f>
         <v>1</v>
       </c>
-      <c r="U39" s="78" t="s">
-        <v>214</v>
-      </c>
-      <c r="V39" s="77"/>
-      <c r="W39" s="77"/>
-      <c r="X39" s="89" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y39" s="77" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z39" s="67">
+      <c r="U39" s="77" t="s">
+        <v>217</v>
+      </c>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y39" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z39" s="65">
         <v>300</v>
       </c>
-      <c r="AA39" s="103">
+      <c r="AA39" s="93">
         <v>0.13</v>
       </c>
-      <c r="AB39" s="104"/>
     </row>
     <row r="40" customHeight="1" spans="1:29">
-      <c r="A40" s="14">
+      <c r="A40" s="15">
         <v>37</v>
       </c>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="I40" s="16"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="71" t="s">
-        <v>216</v>
-      </c>
-      <c r="M40" s="51">
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="I40" s="20"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="67" t="s">
+        <v>219</v>
+      </c>
+      <c r="M40" s="54">
         <f ca="1" t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="N40" s="52">
+      <c r="N40" s="55">
         <v>0.08</v>
       </c>
-      <c r="O40" s="52">
+      <c r="O40" s="55">
         <v>25.83</v>
       </c>
-      <c r="P40" s="72">
-        <v>206</v>
-      </c>
-      <c r="Q40" s="75"/>
-      <c r="R40" s="63"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="14">
+      <c r="P40" s="62"/>
+      <c r="Q40" s="62"/>
+      <c r="R40" s="62"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="15">
         <f>J39/S39</f>
         <v>1</v>
       </c>
-      <c r="U40" s="84" t="s">
-        <v>217</v>
-      </c>
-      <c r="V40" s="14"/>
-      <c r="W40" s="14"/>
-      <c r="X40" s="30"/>
-      <c r="Y40" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z40" s="29"/>
-      <c r="AA40" s="100"/>
-      <c r="AB40" s="95"/>
-      <c r="AC40" s="96"/>
+      <c r="U40" s="77" t="s">
+        <v>220</v>
+      </c>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="33"/>
+      <c r="Y40" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z40" s="32"/>
+      <c r="AA40" s="95"/>
+      <c r="AB40" s="90"/>
+      <c r="AC40" s="91"/>
     </row>
     <row r="41" customHeight="1" spans="1:29">
-      <c r="A41" s="14">
+      <c r="A41" s="15">
         <v>38</v>
       </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="I41" s="16"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="71" t="s">
-        <v>216</v>
-      </c>
-      <c r="M41" s="51">
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="I41" s="20"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="67" t="s">
+        <v>219</v>
+      </c>
+      <c r="M41" s="54">
         <f ca="1" t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="N41" s="52">
+      <c r="N41" s="55">
         <v>0.08</v>
       </c>
-      <c r="O41" s="52">
+      <c r="O41" s="55">
         <v>21.09</v>
       </c>
-      <c r="P41" s="72">
-        <v>206</v>
-      </c>
-      <c r="Q41" s="75"/>
-      <c r="R41" s="63"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="14">
+      <c r="P41" s="62"/>
+      <c r="Q41" s="62"/>
+      <c r="R41" s="62"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="15">
         <f>J39/S39</f>
         <v>1</v>
       </c>
-      <c r="U41" s="84" t="s">
-        <v>219</v>
-      </c>
-      <c r="V41" s="14"/>
-      <c r="W41" s="14"/>
-      <c r="X41" s="30"/>
-      <c r="Y41" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z41" s="29"/>
-      <c r="AA41" s="100"/>
-      <c r="AB41" s="95"/>
-      <c r="AC41" s="96"/>
+      <c r="U41" s="77" t="s">
+        <v>222</v>
+      </c>
+      <c r="V41" s="15"/>
+      <c r="W41" s="15"/>
+      <c r="X41" s="33"/>
+      <c r="Y41" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z41" s="32"/>
+      <c r="AA41" s="95"/>
+      <c r="AB41" s="90"/>
+      <c r="AC41" s="91"/>
     </row>
     <row r="42" customHeight="1" spans="1:29">
-      <c r="A42" s="14">
+      <c r="A42" s="15">
         <v>39</v>
       </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="I42" s="16"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="71" t="s">
-        <v>221</v>
-      </c>
-      <c r="M42" s="51">
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="I42" s="20"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="67" t="s">
+        <v>224</v>
+      </c>
+      <c r="M42" s="54">
         <f ca="1" t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="N42" s="52">
+      <c r="N42" s="55">
         <v>0.08</v>
       </c>
-      <c r="O42" s="52">
+      <c r="O42" s="55">
         <v>33.25</v>
       </c>
-      <c r="P42" s="72">
-        <v>206</v>
-      </c>
-      <c r="Q42" s="75"/>
-      <c r="R42" s="63"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="14">
+      <c r="P42" s="62"/>
+      <c r="Q42" s="62"/>
+      <c r="R42" s="62"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="15">
         <f>J39/S39</f>
         <v>1</v>
       </c>
-      <c r="U42" s="84" t="s">
-        <v>222</v>
-      </c>
-      <c r="V42" s="14"/>
-      <c r="W42" s="14"/>
-      <c r="X42" s="30"/>
-      <c r="Y42" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z42" s="29"/>
-      <c r="AA42" s="100"/>
-      <c r="AB42" s="95"/>
-      <c r="AC42" s="96"/>
+      <c r="U42" s="77" t="s">
+        <v>225</v>
+      </c>
+      <c r="V42" s="15"/>
+      <c r="W42" s="15"/>
+      <c r="X42" s="33"/>
+      <c r="Y42" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z42" s="32"/>
+      <c r="AA42" s="95"/>
+      <c r="AB42" s="90"/>
+      <c r="AC42" s="91"/>
     </row>
     <row r="43" customHeight="1" spans="1:29">
-      <c r="A43" s="14">
+      <c r="A43" s="15">
         <v>40</v>
       </c>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="I43" s="16"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="71" t="s">
-        <v>221</v>
-      </c>
-      <c r="M43" s="51">
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="I43" s="20"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="67" t="s">
+        <v>224</v>
+      </c>
+      <c r="M43" s="54">
         <f ca="1" t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="N43" s="52">
+      <c r="N43" s="55">
         <v>0.08</v>
       </c>
-      <c r="O43" s="52">
+      <c r="O43" s="55">
         <v>33.25</v>
       </c>
-      <c r="P43" s="72">
-        <v>206</v>
-      </c>
-      <c r="Q43" s="75"/>
-      <c r="R43" s="63"/>
-      <c r="S43" s="29"/>
-      <c r="T43" s="14">
+      <c r="P43" s="62"/>
+      <c r="Q43" s="62"/>
+      <c r="R43" s="62"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="15">
         <f>J39/S39</f>
         <v>1</v>
       </c>
-      <c r="U43" s="84" t="s">
+      <c r="U43" s="77" t="s">
+        <v>226</v>
+      </c>
+      <c r="V43" s="15"/>
+      <c r="W43" s="15"/>
+      <c r="X43" s="33"/>
+      <c r="Y43" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z43" s="32"/>
+      <c r="AA43" s="95"/>
+      <c r="AB43" s="90"/>
+      <c r="AC43" s="91"/>
+    </row>
+    <row r="44" customHeight="1" spans="1:29">
+      <c r="A44" s="15">
+        <v>41</v>
+      </c>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="V43" s="14"/>
-      <c r="W43" s="14"/>
-      <c r="X43" s="30"/>
-      <c r="Y43" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z43" s="29"/>
-      <c r="AA43" s="100"/>
-      <c r="AB43" s="95"/>
-      <c r="AC43" s="96"/>
-    </row>
-    <row r="44" customHeight="1" spans="1:29">
-      <c r="A44" s="14">
-        <v>41</v>
-      </c>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="I44" s="16"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="71" t="s">
-        <v>221</v>
-      </c>
-      <c r="M44" s="51">
+      <c r="I44" s="20"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="67" t="s">
+        <v>224</v>
+      </c>
+      <c r="M44" s="54">
         <f ca="1" t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="N44" s="52">
+      <c r="N44" s="55">
         <v>0.08</v>
       </c>
-      <c r="O44" s="52">
+      <c r="O44" s="55">
         <v>33.25</v>
       </c>
-      <c r="P44" s="72">
-        <v>206</v>
-      </c>
-      <c r="Q44" s="75"/>
-      <c r="R44" s="63"/>
-      <c r="S44" s="29"/>
-      <c r="T44" s="14">
+      <c r="P44" s="62"/>
+      <c r="Q44" s="62"/>
+      <c r="R44" s="62"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="15">
         <f>J39/S39</f>
         <v>1</v>
       </c>
-      <c r="U44" s="84" t="s">
+      <c r="U44" s="77" t="s">
+        <v>227</v>
+      </c>
+      <c r="V44" s="15"/>
+      <c r="W44" s="15"/>
+      <c r="X44" s="33"/>
+      <c r="Y44" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z44" s="32"/>
+      <c r="AA44" s="95"/>
+      <c r="AB44" s="90"/>
+      <c r="AC44" s="91"/>
+    </row>
+    <row r="45" customHeight="1" spans="1:29">
+      <c r="A45" s="15">
+        <v>42</v>
+      </c>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="I45" s="20"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="V44" s="14"/>
-      <c r="W44" s="14"/>
-      <c r="X44" s="30"/>
-      <c r="Y44" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z44" s="29"/>
-      <c r="AA44" s="100"/>
-      <c r="AB44" s="95"/>
-      <c r="AC44" s="96"/>
-    </row>
-    <row r="45" customHeight="1" spans="1:29">
-      <c r="A45" s="14">
-        <v>42</v>
-      </c>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="I45" s="16"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="71" t="s">
-        <v>221</v>
-      </c>
-      <c r="M45" s="51">
+      <c r="M45" s="54">
         <f ca="1" t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="N45" s="52">
+      <c r="N45" s="55">
         <v>0.08</v>
       </c>
-      <c r="O45" s="52">
+      <c r="O45" s="55">
         <v>33.25</v>
       </c>
-      <c r="P45" s="72">
-        <v>206</v>
-      </c>
-      <c r="Q45" s="75"/>
-      <c r="R45" s="63"/>
-      <c r="S45" s="29"/>
-      <c r="T45" s="14">
+      <c r="P45" s="62"/>
+      <c r="Q45" s="62"/>
+      <c r="R45" s="62"/>
+      <c r="S45" s="32"/>
+      <c r="T45" s="15">
         <f>J39/S39</f>
         <v>1</v>
       </c>
-      <c r="U45" s="84" t="s">
-        <v>225</v>
-      </c>
-      <c r="V45" s="14"/>
-      <c r="W45" s="14"/>
-      <c r="X45" s="30"/>
-      <c r="Y45" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z45" s="29"/>
-      <c r="AA45" s="100"/>
-      <c r="AB45" s="95"/>
-      <c r="AC45" s="96"/>
+      <c r="U45" s="77" t="s">
+        <v>228</v>
+      </c>
+      <c r="V45" s="15"/>
+      <c r="W45" s="15"/>
+      <c r="X45" s="33"/>
+      <c r="Y45" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z45" s="32"/>
+      <c r="AA45" s="95"/>
+      <c r="AB45" s="90"/>
+      <c r="AC45" s="91"/>
     </row>
     <row r="46" customHeight="1" spans="1:29">
-      <c r="A46" s="14">
+      <c r="A46" s="15">
         <v>43</v>
       </c>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="I46" s="16"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="71" t="s">
-        <v>227</v>
-      </c>
-      <c r="M46" s="51">
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="I46" s="20"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="67" t="s">
+        <v>230</v>
+      </c>
+      <c r="M46" s="54">
         <f ca="1" t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="N46" s="52">
+      <c r="N46" s="55">
         <v>0.04</v>
       </c>
-      <c r="O46" s="52">
+      <c r="O46" s="55">
         <v>16.91</v>
       </c>
-      <c r="P46" s="72">
-        <v>206</v>
-      </c>
-      <c r="Q46" s="76"/>
-      <c r="R46" s="54"/>
-      <c r="S46" s="33"/>
-      <c r="T46" s="14">
+      <c r="P46" s="57"/>
+      <c r="Q46" s="57"/>
+      <c r="R46" s="57"/>
+      <c r="S46" s="36"/>
+      <c r="T46" s="15">
         <f>J39/S39</f>
         <v>1</v>
       </c>
-      <c r="U46" s="84" t="s">
-        <v>228</v>
-      </c>
-      <c r="V46" s="14"/>
-      <c r="W46" s="14"/>
-      <c r="X46" s="34"/>
-      <c r="Y46" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z46" s="33"/>
-      <c r="AA46" s="102"/>
-      <c r="AB46" s="95"/>
-      <c r="AC46" s="96"/>
-    </row>
-    <row r="47" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A47" s="14">
+      <c r="U46" s="77" t="s">
+        <v>231</v>
+      </c>
+      <c r="V46" s="15"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="37"/>
+      <c r="Y46" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z46" s="36"/>
+      <c r="AA46" s="97"/>
+      <c r="AB46" s="90"/>
+      <c r="AC46" s="91"/>
+    </row>
+    <row r="47" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A47" s="15">
         <v>44</v>
       </c>
-      <c r="B47" s="43" t="s">
-        <v>229</v>
-      </c>
-      <c r="C47" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="D47" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="G47" s="45" t="s">
+      <c r="B47" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="H47" s="22" t="s">
+      <c r="C47" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="I47" s="16" t="str">
+      <c r="D47" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="G47" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="H47" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="I47" s="20" t="str">
         <f>VLOOKUP(B47,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J47" s="33">
+      <c r="J47" s="36">
         <v>10</v>
       </c>
-      <c r="K47" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="L47" s="71" t="s">
-        <v>234</v>
-      </c>
-      <c r="M47" s="51">
+      <c r="K47" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="L47" s="67" t="s">
+        <v>237</v>
+      </c>
+      <c r="M47" s="54">
         <f ca="1" t="shared" si="4"/>
         <v>0.3</v>
       </c>
-      <c r="N47" s="56">
+      <c r="N47" s="59">
         <f ca="1">M47*T47</f>
         <v>3</v>
       </c>
-      <c r="O47" s="52">
+      <c r="O47" s="55">
         <v>37</v>
       </c>
-      <c r="P47" s="72">
+      <c r="P47" s="68">
         <f>O47*T47</f>
         <v>370</v>
       </c>
-      <c r="Q47" s="76">
+      <c r="Q47" s="57">
         <v>270</v>
       </c>
-      <c r="R47" s="54">
+      <c r="R47" s="57">
         <v>270</v>
       </c>
-      <c r="S47" s="33">
+      <c r="S47" s="36">
         <v>1</v>
       </c>
-      <c r="T47" s="14">
+      <c r="T47" s="15">
         <f>J47/S47</f>
         <v>10</v>
       </c>
-      <c r="U47" s="84" t="s">
+      <c r="U47" s="77" t="s">
+        <v>238</v>
+      </c>
+      <c r="V47" s="15"/>
+      <c r="W47" s="15"/>
+      <c r="X47" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y47" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z47" s="36">
+        <v>3400</v>
+      </c>
+      <c r="AA47" s="97">
+        <v>0.13</v>
+      </c>
+      <c r="AB47" s="91"/>
+      <c r="AC47" s="91"/>
+    </row>
+    <row r="48" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A48" s="15">
+        <v>45</v>
+      </c>
+      <c r="B48" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="C48" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="D48" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="G48" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="V47" s="14"/>
-      <c r="W47" s="14"/>
-      <c r="X47" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y47" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z47" s="33">
-        <v>3400</v>
-      </c>
-      <c r="AA47" s="102">
-        <v>0.13</v>
-      </c>
-      <c r="AB47" s="96"/>
-      <c r="AC47" s="96"/>
-    </row>
-    <row r="48" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A48" s="14">
-        <v>45</v>
-      </c>
-      <c r="B48" s="43" t="s">
-        <v>236</v>
-      </c>
-      <c r="C48" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="D48" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="G48" s="45" t="s">
-        <v>232</v>
-      </c>
-      <c r="H48" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="I48" s="16" t="str">
+      <c r="H48" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="I48" s="20" t="str">
         <f>VLOOKUP(B48,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J48" s="33">
+      <c r="J48" s="36">
         <v>10</v>
       </c>
-      <c r="K48" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="L48" s="71" t="s">
-        <v>238</v>
-      </c>
-      <c r="M48" s="51">
+      <c r="K48" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="L48" s="67" t="s">
+        <v>241</v>
+      </c>
+      <c r="M48" s="54">
         <f ca="1" t="shared" si="4"/>
         <v>0.43</v>
       </c>
-      <c r="N48" s="56">
+      <c r="N48" s="59">
         <f ca="1">M48*T48</f>
         <v>4.3</v>
       </c>
-      <c r="O48" s="52">
+      <c r="O48" s="55">
         <v>54</v>
       </c>
-      <c r="P48" s="72">
+      <c r="P48" s="68">
         <f>O48*T48</f>
         <v>540</v>
       </c>
-      <c r="Q48" s="76">
+      <c r="Q48" s="57">
         <v>440</v>
       </c>
-      <c r="R48" s="54">
+      <c r="R48" s="57">
         <v>440</v>
       </c>
-      <c r="S48" s="33">
+      <c r="S48" s="36">
         <v>1</v>
       </c>
-      <c r="T48" s="14">
+      <c r="T48" s="15">
         <f>J48/S48</f>
         <v>10</v>
       </c>
-      <c r="U48" s="84" t="s">
-        <v>239</v>
-      </c>
-      <c r="V48" s="14"/>
-      <c r="W48" s="14"/>
-      <c r="X48" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y48" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z48" s="33">
+      <c r="U48" s="77" t="s">
+        <v>242</v>
+      </c>
+      <c r="V48" s="15"/>
+      <c r="W48" s="15"/>
+      <c r="X48" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y48" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z48" s="36">
         <v>5150</v>
       </c>
-      <c r="AA48" s="102">
+      <c r="AA48" s="97">
         <v>0.13</v>
       </c>
-      <c r="AB48" s="96"/>
-      <c r="AC48" s="96"/>
-    </row>
-    <row r="49" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A49" s="14">
+      <c r="AB48" s="91"/>
+      <c r="AC48" s="91"/>
+    </row>
+    <row r="49" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A49" s="15">
         <v>46</v>
       </c>
-      <c r="B49" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="C49" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F49" s="46" t="s">
-        <v>242</v>
-      </c>
-      <c r="G49" s="45" t="s">
+      <c r="B49" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="H49" s="22" t="s">
+      <c r="C49" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="I49" s="16" t="str">
+      <c r="D49" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="G49" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="H49" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="I49" s="20" t="str">
         <f>VLOOKUP(B49,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>AEVF4</v>
       </c>
-      <c r="J49" s="33">
+      <c r="J49" s="36">
         <v>1</v>
       </c>
-      <c r="K49" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="L49" s="71" t="s">
-        <v>245</v>
-      </c>
-      <c r="M49" s="51">
+      <c r="K49" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L49" s="67" t="s">
+        <v>248</v>
+      </c>
+      <c r="M49" s="54">
         <f ca="1" t="shared" si="4"/>
         <v>0.02</v>
       </c>
-      <c r="N49" s="52">
+      <c r="N49" s="55">
         <f ca="1">M49*T49</f>
         <v>0.02</v>
       </c>
-      <c r="O49" s="53">
+      <c r="O49" s="56">
         <v>15.16</v>
       </c>
-      <c r="P49" s="54">
+      <c r="P49" s="57">
         <f>O49*T49</f>
         <v>15.16</v>
       </c>
-      <c r="Q49" s="76">
+      <c r="Q49" s="57">
         <v>15</v>
       </c>
-      <c r="R49" s="54">
+      <c r="R49" s="57">
         <v>15</v>
       </c>
-      <c r="S49" s="33">
+      <c r="S49" s="36">
         <v>1</v>
       </c>
-      <c r="T49" s="33">
+      <c r="T49" s="36">
         <f>J49/S49</f>
         <v>1</v>
       </c>
-      <c r="U49" s="84" t="s">
-        <v>246</v>
-      </c>
-      <c r="V49" s="14"/>
-      <c r="W49" s="14"/>
-      <c r="X49" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y49" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z49" s="33">
+      <c r="U49" s="77" t="s">
+        <v>249</v>
+      </c>
+      <c r="V49" s="15"/>
+      <c r="W49" s="15"/>
+      <c r="X49" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y49" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z49" s="36">
         <v>935</v>
       </c>
-      <c r="AA49" s="102">
+      <c r="AA49" s="97">
         <v>0.13</v>
       </c>
-      <c r="AB49" s="96"/>
-      <c r="AC49" s="96"/>
-    </row>
-    <row r="50" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A50" s="14">
+      <c r="AB49" s="91"/>
+      <c r="AC49" s="91"/>
+    </row>
+    <row r="50" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A50" s="15">
         <v>47</v>
       </c>
-      <c r="B50" s="43" t="s">
-        <v>247</v>
-      </c>
-      <c r="C50" s="43" t="s">
-        <v>248</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="G50" s="45" t="s">
+      <c r="B50" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="H50" s="22" t="s">
+      <c r="C50" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="I50" s="16" t="str">
+      <c r="D50" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="G50" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="H50" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="I50" s="20" t="str">
         <f>VLOOKUP(B50,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J50" s="33">
+      <c r="J50" s="36">
         <v>10</v>
       </c>
-      <c r="K50" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="L50" s="79" t="s">
-        <v>252</v>
-      </c>
-      <c r="M50" s="62">
+      <c r="K50" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L50" s="72" t="s">
+        <v>255</v>
+      </c>
+      <c r="M50" s="61">
         <f ca="1" t="shared" si="4"/>
         <v>0.02</v>
       </c>
-      <c r="N50" s="56">
+      <c r="N50" s="59">
         <f ca="1">M50*T50</f>
         <v>0.02</v>
       </c>
-      <c r="O50" s="57">
+      <c r="O50" s="60">
         <v>5</v>
       </c>
-      <c r="P50" s="63">
+      <c r="P50" s="62">
         <f>O50*T50</f>
         <v>5</v>
       </c>
-      <c r="Q50" s="76">
+      <c r="Q50" s="57">
         <v>0.09</v>
       </c>
-      <c r="R50" s="54">
+      <c r="R50" s="57">
         <v>0.09</v>
       </c>
-      <c r="S50" s="33">
+      <c r="S50" s="36">
         <v>10</v>
       </c>
-      <c r="T50" s="29">
+      <c r="T50" s="32">
         <f>J50/S50</f>
         <v>1</v>
       </c>
-      <c r="U50" s="85" t="s">
-        <v>253</v>
-      </c>
-      <c r="V50" s="14"/>
-      <c r="W50" s="14"/>
-      <c r="X50" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y50" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z50" s="33">
+      <c r="U50" s="79" t="s">
+        <v>256</v>
+      </c>
+      <c r="V50" s="15"/>
+      <c r="W50" s="15"/>
+      <c r="X50" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y50" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z50" s="36">
         <v>22</v>
       </c>
-      <c r="AA50" s="102">
+      <c r="AA50" s="97">
         <v>0.13</v>
       </c>
-      <c r="AB50" s="96"/>
-      <c r="AC50" s="96"/>
-    </row>
-    <row r="51" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A51" s="14">
+      <c r="AB50" s="91"/>
+      <c r="AC50" s="91"/>
+    </row>
+    <row r="51" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A51" s="15">
         <v>48</v>
       </c>
-      <c r="B51" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="C51" s="43" t="s">
-        <v>248</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F51" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="G51" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="H51" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="I51" s="16" t="str">
+      <c r="B51" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="C51" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F51" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="G51" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="H51" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="I51" s="20" t="str">
         <f>VLOOKUP(B51,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>TG-205A-FU</v>
       </c>
-      <c r="J51" s="33">
+      <c r="J51" s="36">
         <v>5</v>
       </c>
-      <c r="K51" s="33" t="s">
+      <c r="K51" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L51" s="73"/>
+      <c r="M51" s="64"/>
+      <c r="N51" s="60"/>
+      <c r="O51" s="60"/>
+      <c r="P51" s="62"/>
+      <c r="Q51" s="57">
+        <v>0.04</v>
+      </c>
+      <c r="R51" s="57">
+        <v>0.04</v>
+      </c>
+      <c r="S51" s="36">
+        <v>5</v>
+      </c>
+      <c r="T51" s="32"/>
+      <c r="U51" s="80"/>
+      <c r="V51" s="15"/>
+      <c r="W51" s="15"/>
+      <c r="X51" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y51" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z51" s="36">
+        <v>350</v>
+      </c>
+      <c r="AA51" s="97">
+        <v>0.13</v>
+      </c>
+      <c r="AB51" s="91"/>
+      <c r="AC51" s="91"/>
+    </row>
+    <row r="52" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A52" s="15">
+        <v>49</v>
+      </c>
+      <c r="B52" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="C52" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="L51" s="80"/>
-      <c r="M51" s="65"/>
-      <c r="N51" s="57"/>
-      <c r="O51" s="57"/>
-      <c r="P51" s="63"/>
-      <c r="Q51" s="76">
-        <v>0.04</v>
-      </c>
-      <c r="R51" s="54">
-        <v>0.04</v>
-      </c>
-      <c r="S51" s="33">
-        <v>5</v>
-      </c>
-      <c r="T51" s="29"/>
-      <c r="U51" s="86"/>
-      <c r="V51" s="14"/>
-      <c r="W51" s="14"/>
-      <c r="X51" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y51" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z51" s="33">
-        <v>350</v>
-      </c>
-      <c r="AA51" s="102">
-        <v>0.13</v>
-      </c>
-      <c r="AB51" s="96"/>
-      <c r="AC51" s="96"/>
-    </row>
-    <row r="52" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A52" s="14">
-        <v>49</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>257</v>
-      </c>
-      <c r="C52" s="43" t="s">
-        <v>248</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F52" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="G52" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="H52" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="I52" s="16" t="str">
+      <c r="F52" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="G52" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="H52" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="I52" s="20" t="str">
         <f>VLOOKUP(B52,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>LS1D-01033</v>
       </c>
-      <c r="J52" s="33">
+      <c r="J52" s="36">
         <v>500</v>
       </c>
-      <c r="K52" s="33" t="s">
+      <c r="K52" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L52" s="73"/>
+      <c r="M52" s="64"/>
+      <c r="N52" s="60"/>
+      <c r="O52" s="60"/>
+      <c r="P52" s="62"/>
+      <c r="Q52" s="57">
+        <v>4.5</v>
+      </c>
+      <c r="R52" s="57">
+        <v>4.5</v>
+      </c>
+      <c r="S52" s="36">
+        <v>500</v>
+      </c>
+      <c r="T52" s="32"/>
+      <c r="U52" s="80"/>
+      <c r="V52" s="15"/>
+      <c r="W52" s="15"/>
+      <c r="X52" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y52" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z52" s="36">
+        <v>8</v>
+      </c>
+      <c r="AA52" s="97">
+        <v>0.13</v>
+      </c>
+      <c r="AB52" s="91"/>
+      <c r="AC52" s="91"/>
+    </row>
+    <row r="53" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A53" s="15">
+        <v>50</v>
+      </c>
+      <c r="B53" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="C53" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="L52" s="80"/>
-      <c r="M52" s="65"/>
-      <c r="N52" s="57"/>
-      <c r="O52" s="57"/>
-      <c r="P52" s="63"/>
-      <c r="Q52" s="76">
-        <v>4.5</v>
-      </c>
-      <c r="R52" s="54">
-        <v>4.5</v>
-      </c>
-      <c r="S52" s="33">
-        <v>500</v>
-      </c>
-      <c r="T52" s="29"/>
-      <c r="U52" s="86"/>
-      <c r="V52" s="14"/>
-      <c r="W52" s="14"/>
-      <c r="X52" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y52" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z52" s="33">
-        <v>8</v>
-      </c>
-      <c r="AA52" s="102">
-        <v>0.13</v>
-      </c>
-      <c r="AB52" s="96"/>
-      <c r="AC52" s="96"/>
-    </row>
-    <row r="53" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A53" s="14">
-        <v>50</v>
-      </c>
-      <c r="B53" s="43" t="s">
-        <v>261</v>
-      </c>
-      <c r="C53" s="43" t="s">
-        <v>248</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F53" s="47" t="s">
-        <v>262</v>
-      </c>
-      <c r="G53" s="45" t="s">
-        <v>263</v>
-      </c>
-      <c r="H53" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="I53" s="16" t="str">
+      <c r="F53" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="G53" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="H53" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="I53" s="20" t="str">
         <f>VLOOKUP(B53,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J53" s="33">
+      <c r="J53" s="36">
         <v>4</v>
       </c>
-      <c r="K53" s="33" t="s">
+      <c r="K53" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L53" s="73"/>
+      <c r="M53" s="64"/>
+      <c r="N53" s="60"/>
+      <c r="O53" s="60"/>
+      <c r="P53" s="62"/>
+      <c r="Q53" s="57">
+        <v>0.04</v>
+      </c>
+      <c r="R53" s="57">
+        <v>0.04</v>
+      </c>
+      <c r="S53" s="36">
+        <v>4</v>
+      </c>
+      <c r="T53" s="32"/>
+      <c r="U53" s="80"/>
+      <c r="V53" s="15"/>
+      <c r="W53" s="15"/>
+      <c r="X53" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y53" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z53" s="36">
+        <v>110</v>
+      </c>
+      <c r="AA53" s="97">
+        <v>0.13</v>
+      </c>
+      <c r="AB53" s="91"/>
+      <c r="AC53" s="91"/>
+    </row>
+    <row r="54" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A54" s="15">
+        <v>51</v>
+      </c>
+      <c r="B54" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="C54" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E54" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="L53" s="80"/>
-      <c r="M53" s="65"/>
-      <c r="N53" s="57"/>
-      <c r="O53" s="57"/>
-      <c r="P53" s="63"/>
-      <c r="Q53" s="76">
-        <v>0.04</v>
-      </c>
-      <c r="R53" s="54">
-        <v>0.04</v>
-      </c>
-      <c r="S53" s="33">
-        <v>4</v>
-      </c>
-      <c r="T53" s="29"/>
-      <c r="U53" s="86"/>
-      <c r="V53" s="14"/>
-      <c r="W53" s="14"/>
-      <c r="X53" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y53" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z53" s="33">
-        <v>110</v>
-      </c>
-      <c r="AA53" s="102">
-        <v>0.13</v>
-      </c>
-      <c r="AB53" s="96"/>
-      <c r="AC53" s="96"/>
-    </row>
-    <row r="54" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A54" s="14">
-        <v>51</v>
-      </c>
-      <c r="B54" s="43" t="s">
-        <v>264</v>
-      </c>
-      <c r="C54" s="43" t="s">
-        <v>265</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F54" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G54" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="H54" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="I54" s="16" t="str">
+      <c r="F54" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="G54" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="H54" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="I54" s="20" t="str">
         <f>VLOOKUP(B54,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J54" s="33">
+      <c r="J54" s="36">
         <v>5</v>
       </c>
-      <c r="K54" s="33" t="s">
+      <c r="K54" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L54" s="73"/>
+      <c r="M54" s="64"/>
+      <c r="N54" s="60"/>
+      <c r="O54" s="60"/>
+      <c r="P54" s="62"/>
+      <c r="Q54" s="57">
+        <v>0.04</v>
+      </c>
+      <c r="R54" s="57">
+        <v>0.04</v>
+      </c>
+      <c r="S54" s="36">
+        <v>5</v>
+      </c>
+      <c r="T54" s="32"/>
+      <c r="U54" s="80"/>
+      <c r="V54" s="15"/>
+      <c r="W54" s="15"/>
+      <c r="X54" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y54" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z54" s="36">
+        <v>186.45</v>
+      </c>
+      <c r="AA54" s="97">
+        <v>0.13</v>
+      </c>
+      <c r="AB54" s="91"/>
+      <c r="AC54" s="91"/>
+    </row>
+    <row r="55" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A55" s="15">
+        <v>52</v>
+      </c>
+      <c r="B55" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="C55" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E55" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="L54" s="80"/>
-      <c r="M54" s="65"/>
-      <c r="N54" s="57"/>
-      <c r="O54" s="57"/>
-      <c r="P54" s="63"/>
-      <c r="Q54" s="76">
-        <v>0.04</v>
-      </c>
-      <c r="R54" s="54">
-        <v>0.04</v>
-      </c>
-      <c r="S54" s="33">
-        <v>5</v>
-      </c>
-      <c r="T54" s="29"/>
-      <c r="U54" s="86"/>
-      <c r="V54" s="14"/>
-      <c r="W54" s="14"/>
-      <c r="X54" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y54" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z54" s="33">
-        <v>186.45</v>
-      </c>
-      <c r="AA54" s="102">
-        <v>0.13</v>
-      </c>
-      <c r="AB54" s="96"/>
-      <c r="AC54" s="96"/>
-    </row>
-    <row r="55" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A55" s="14">
-        <v>52</v>
-      </c>
-      <c r="B55" s="43" t="s">
-        <v>269</v>
-      </c>
-      <c r="C55" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F55" s="47" t="s">
-        <v>270</v>
-      </c>
-      <c r="G55" s="45" t="s">
-        <v>271</v>
-      </c>
-      <c r="H55" s="44" t="s">
-        <v>271</v>
-      </c>
-      <c r="I55" s="16" t="str">
+      <c r="F55" s="50" t="s">
+        <v>273</v>
+      </c>
+      <c r="G55" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="H55" s="47" t="s">
+        <v>274</v>
+      </c>
+      <c r="I55" s="20" t="str">
         <f>VLOOKUP(B55,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>KYB-M7027-001</v>
       </c>
-      <c r="J55" s="33">
+      <c r="J55" s="36">
         <v>2</v>
       </c>
-      <c r="K55" s="33" t="s">
+      <c r="K55" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L55" s="73"/>
+      <c r="M55" s="64"/>
+      <c r="N55" s="60"/>
+      <c r="O55" s="60"/>
+      <c r="P55" s="62"/>
+      <c r="Q55" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="R55" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="S55" s="36">
+        <v>2</v>
+      </c>
+      <c r="T55" s="32"/>
+      <c r="U55" s="80"/>
+      <c r="V55" s="15"/>
+      <c r="W55" s="15"/>
+      <c r="X55" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y55" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z55" s="98">
+        <v>4950</v>
+      </c>
+      <c r="AA55" s="97">
+        <v>0.01</v>
+      </c>
+      <c r="AB55" s="91"/>
+      <c r="AC55" s="91"/>
+    </row>
+    <row r="56" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A56" s="15">
+        <v>53</v>
+      </c>
+      <c r="B56" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="C56" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E56" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="L55" s="80"/>
-      <c r="M55" s="65"/>
-      <c r="N55" s="57"/>
-      <c r="O55" s="57"/>
-      <c r="P55" s="63"/>
-      <c r="Q55" s="76">
-        <v>0.02</v>
-      </c>
-      <c r="R55" s="54">
-        <v>0.02</v>
-      </c>
-      <c r="S55" s="33">
-        <v>2</v>
-      </c>
-      <c r="T55" s="29"/>
-      <c r="U55" s="86"/>
-      <c r="V55" s="14"/>
-      <c r="W55" s="14"/>
-      <c r="X55" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y55" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z55" s="105">
-        <v>4950</v>
-      </c>
-      <c r="AA55" s="102">
-        <v>0.01</v>
-      </c>
-      <c r="AB55" s="96"/>
-      <c r="AC55" s="96"/>
-    </row>
-    <row r="56" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A56" s="14">
-        <v>53</v>
-      </c>
-      <c r="B56" s="43" t="s">
-        <v>272</v>
-      </c>
-      <c r="C56" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F56" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="G56" s="45" t="s">
-        <v>274</v>
-      </c>
-      <c r="H56" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="I56" s="16" t="str">
+      <c r="F56" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="G56" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="I56" s="20" t="str">
         <f>VLOOKUP(B56,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J56" s="33">
+      <c r="J56" s="36">
         <v>10</v>
       </c>
-      <c r="K56" s="33" t="s">
+      <c r="K56" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L56" s="73"/>
+      <c r="M56" s="64"/>
+      <c r="N56" s="60"/>
+      <c r="O56" s="60"/>
+      <c r="P56" s="62"/>
+      <c r="Q56" s="57">
+        <v>0.09</v>
+      </c>
+      <c r="R56" s="57">
+        <v>0.09</v>
+      </c>
+      <c r="S56" s="36">
+        <v>10</v>
+      </c>
+      <c r="T56" s="32"/>
+      <c r="U56" s="80"/>
+      <c r="V56" s="15"/>
+      <c r="W56" s="15"/>
+      <c r="X56" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y56" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z56" s="36">
+        <v>6.5</v>
+      </c>
+      <c r="AA56" s="97">
+        <v>0.13</v>
+      </c>
+      <c r="AB56" s="91"/>
+      <c r="AC56" s="91"/>
+    </row>
+    <row r="57" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A57" s="15">
+        <v>54</v>
+      </c>
+      <c r="B57" s="46" t="s">
+        <v>279</v>
+      </c>
+      <c r="C57" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E57" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="L56" s="80"/>
-      <c r="M56" s="65"/>
-      <c r="N56" s="57"/>
-      <c r="O56" s="57"/>
-      <c r="P56" s="63"/>
-      <c r="Q56" s="76">
-        <v>0.09</v>
-      </c>
-      <c r="R56" s="54">
-        <v>0.09</v>
-      </c>
-      <c r="S56" s="33">
-        <v>10</v>
-      </c>
-      <c r="T56" s="29"/>
-      <c r="U56" s="86"/>
-      <c r="V56" s="14"/>
-      <c r="W56" s="14"/>
-      <c r="X56" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y56" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z56" s="33">
-        <v>6.5</v>
-      </c>
-      <c r="AA56" s="102">
-        <v>0.13</v>
-      </c>
-      <c r="AB56" s="96"/>
-      <c r="AC56" s="96"/>
-    </row>
-    <row r="57" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A57" s="14">
-        <v>54</v>
-      </c>
-      <c r="B57" s="43" t="s">
+      <c r="F57" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="C57" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F57" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="G57" s="45" t="s">
-        <v>274</v>
-      </c>
-      <c r="H57" s="22" t="s">
+      <c r="G57" s="48" t="s">
         <v>277</v>
       </c>
-      <c r="I57" s="16" t="str">
+      <c r="H57" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="I57" s="20" t="str">
         <f>VLOOKUP(B57,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J57" s="33">
+      <c r="J57" s="36">
         <v>10</v>
       </c>
-      <c r="K57" s="33" t="s">
+      <c r="K57" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L57" s="73"/>
+      <c r="M57" s="64"/>
+      <c r="N57" s="60"/>
+      <c r="O57" s="60"/>
+      <c r="P57" s="62"/>
+      <c r="Q57" s="57">
+        <v>0.09</v>
+      </c>
+      <c r="R57" s="57">
+        <v>0.09</v>
+      </c>
+      <c r="S57" s="36">
+        <v>10</v>
+      </c>
+      <c r="T57" s="32"/>
+      <c r="U57" s="80"/>
+      <c r="V57" s="15"/>
+      <c r="W57" s="15"/>
+      <c r="X57" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y57" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z57" s="36">
+        <v>6.5</v>
+      </c>
+      <c r="AA57" s="97">
+        <v>0.13</v>
+      </c>
+      <c r="AB57" s="91"/>
+      <c r="AC57" s="91"/>
+    </row>
+    <row r="58" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A58" s="15">
+        <v>55</v>
+      </c>
+      <c r="B58" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="C58" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E58" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="L57" s="80"/>
-      <c r="M57" s="65"/>
-      <c r="N57" s="57"/>
-      <c r="O57" s="57"/>
-      <c r="P57" s="63"/>
-      <c r="Q57" s="76">
-        <v>0.09</v>
-      </c>
-      <c r="R57" s="54">
-        <v>0.09</v>
-      </c>
-      <c r="S57" s="33">
-        <v>10</v>
-      </c>
-      <c r="T57" s="29"/>
-      <c r="U57" s="86"/>
-      <c r="V57" s="14"/>
-      <c r="W57" s="14"/>
-      <c r="X57" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y57" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z57" s="33">
-        <v>6.5</v>
-      </c>
-      <c r="AA57" s="102">
-        <v>0.13</v>
-      </c>
-      <c r="AB57" s="96"/>
-      <c r="AC57" s="96"/>
-    </row>
-    <row r="58" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A58" s="14">
-        <v>55</v>
-      </c>
-      <c r="B58" s="43" t="s">
-        <v>278</v>
-      </c>
-      <c r="C58" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="D58" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F58" s="46" t="s">
-        <v>279</v>
-      </c>
-      <c r="G58" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="H58" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="I58" s="16" t="str">
+      <c r="F58" s="49" t="s">
+        <v>282</v>
+      </c>
+      <c r="G58" s="48" t="s">
+        <v>283</v>
+      </c>
+      <c r="H58" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="I58" s="20" t="str">
         <f>VLOOKUP(B58,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J58" s="33">
+      <c r="J58" s="36">
         <v>2</v>
       </c>
-      <c r="K58" s="33" t="s">
+      <c r="K58" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L58" s="73"/>
+      <c r="M58" s="64"/>
+      <c r="N58" s="60"/>
+      <c r="O58" s="60"/>
+      <c r="P58" s="62"/>
+      <c r="Q58" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="R58" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="S58" s="36">
+        <v>2</v>
+      </c>
+      <c r="T58" s="32"/>
+      <c r="U58" s="80"/>
+      <c r="V58" s="15"/>
+      <c r="W58" s="15"/>
+      <c r="X58" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y58" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z58" s="36">
+        <v>220</v>
+      </c>
+      <c r="AA58" s="97">
+        <v>0.13</v>
+      </c>
+      <c r="AB58" s="91"/>
+      <c r="AC58" s="91"/>
+    </row>
+    <row r="59" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A59" s="15">
+        <v>56</v>
+      </c>
+      <c r="B59" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="C59" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E59" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="L58" s="80"/>
-      <c r="M58" s="65"/>
-      <c r="N58" s="57"/>
-      <c r="O58" s="57"/>
-      <c r="P58" s="63"/>
-      <c r="Q58" s="76">
-        <v>0.02</v>
-      </c>
-      <c r="R58" s="54">
-        <v>0.02</v>
-      </c>
-      <c r="S58" s="33">
-        <v>2</v>
-      </c>
-      <c r="T58" s="29"/>
-      <c r="U58" s="86"/>
-      <c r="V58" s="14"/>
-      <c r="W58" s="14"/>
-      <c r="X58" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y58" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z58" s="33">
-        <v>220</v>
-      </c>
-      <c r="AA58" s="102">
-        <v>0.13</v>
-      </c>
-      <c r="AB58" s="96"/>
-      <c r="AC58" s="96"/>
-    </row>
-    <row r="59" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A59" s="14">
-        <v>56</v>
-      </c>
-      <c r="B59" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="C59" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F59" s="46" t="s">
+      <c r="F59" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="G59" s="48" t="s">
         <v>283</v>
       </c>
-      <c r="G59" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="H59" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="I59" s="16" t="str">
+      <c r="H59" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="I59" s="20" t="str">
         <f>VLOOKUP(B59,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J59" s="33">
+      <c r="J59" s="36">
         <v>2</v>
       </c>
-      <c r="K59" s="33" t="s">
+      <c r="K59" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L59" s="73"/>
+      <c r="M59" s="64"/>
+      <c r="N59" s="60"/>
+      <c r="O59" s="60"/>
+      <c r="P59" s="62"/>
+      <c r="Q59" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="R59" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="S59" s="36">
+        <v>2</v>
+      </c>
+      <c r="T59" s="32"/>
+      <c r="U59" s="80"/>
+      <c r="V59" s="15"/>
+      <c r="W59" s="15"/>
+      <c r="X59" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y59" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z59" s="36">
+        <v>220</v>
+      </c>
+      <c r="AA59" s="97">
+        <v>0.13</v>
+      </c>
+      <c r="AB59" s="91"/>
+      <c r="AC59" s="91"/>
+    </row>
+    <row r="60" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A60" s="15">
+        <v>57</v>
+      </c>
+      <c r="B60" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="C60" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E60" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="L59" s="80"/>
-      <c r="M59" s="65"/>
-      <c r="N59" s="57"/>
-      <c r="O59" s="57"/>
-      <c r="P59" s="63"/>
-      <c r="Q59" s="76">
-        <v>0.02</v>
-      </c>
-      <c r="R59" s="54">
-        <v>0.02</v>
-      </c>
-      <c r="S59" s="33">
-        <v>2</v>
-      </c>
-      <c r="T59" s="29"/>
-      <c r="U59" s="86"/>
-      <c r="V59" s="14"/>
-      <c r="W59" s="14"/>
-      <c r="X59" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y59" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z59" s="33">
-        <v>220</v>
-      </c>
-      <c r="AA59" s="102">
-        <v>0.13</v>
-      </c>
-      <c r="AB59" s="96"/>
-      <c r="AC59" s="96"/>
-    </row>
-    <row r="60" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A60" s="14">
-        <v>57</v>
-      </c>
-      <c r="B60" s="43" t="s">
-        <v>285</v>
-      </c>
-      <c r="C60" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F60" s="46" t="s">
-        <v>286</v>
-      </c>
-      <c r="G60" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="H60" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="I60" s="16" t="str">
+      <c r="F60" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="G60" s="48" t="s">
+        <v>283</v>
+      </c>
+      <c r="H60" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="I60" s="20" t="str">
         <f>VLOOKUP(B60,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J60" s="33">
+      <c r="J60" s="36">
         <v>2</v>
       </c>
-      <c r="K60" s="33" t="s">
+      <c r="K60" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L60" s="73"/>
+      <c r="M60" s="64"/>
+      <c r="N60" s="60"/>
+      <c r="O60" s="60"/>
+      <c r="P60" s="62"/>
+      <c r="Q60" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="R60" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="S60" s="36">
+        <v>2</v>
+      </c>
+      <c r="T60" s="32"/>
+      <c r="U60" s="80"/>
+      <c r="V60" s="15"/>
+      <c r="W60" s="15"/>
+      <c r="X60" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y60" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z60" s="36">
+        <v>220</v>
+      </c>
+      <c r="AA60" s="97">
+        <v>0.13</v>
+      </c>
+      <c r="AB60" s="91"/>
+      <c r="AC60" s="91"/>
+    </row>
+    <row r="61" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A61" s="15">
+        <v>58</v>
+      </c>
+      <c r="B61" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="C61" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E61" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="L60" s="80"/>
-      <c r="M60" s="65"/>
-      <c r="N60" s="57"/>
-      <c r="O60" s="57"/>
-      <c r="P60" s="63"/>
-      <c r="Q60" s="76">
-        <v>0.02</v>
-      </c>
-      <c r="R60" s="54">
-        <v>0.02</v>
-      </c>
-      <c r="S60" s="33">
-        <v>2</v>
-      </c>
-      <c r="T60" s="29"/>
-      <c r="U60" s="86"/>
-      <c r="V60" s="14"/>
-      <c r="W60" s="14"/>
-      <c r="X60" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y60" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z60" s="33">
-        <v>220</v>
-      </c>
-      <c r="AA60" s="102">
-        <v>0.13</v>
-      </c>
-      <c r="AB60" s="96"/>
-      <c r="AC60" s="96"/>
-    </row>
-    <row r="61" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A61" s="14">
-        <v>58</v>
-      </c>
-      <c r="B61" s="43" t="s">
+      <c r="F61" s="49" t="s">
+        <v>291</v>
+      </c>
+      <c r="G61" s="48" t="s">
+        <v>283</v>
+      </c>
+      <c r="H61" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="C61" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F61" s="46" t="s">
-        <v>288</v>
-      </c>
-      <c r="G61" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="H61" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="I61" s="16" t="str">
+      <c r="I61" s="20" t="str">
         <f>VLOOKUP(B61,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J61" s="33">
+      <c r="J61" s="36">
         <v>2</v>
       </c>
-      <c r="K61" s="33" t="s">
+      <c r="K61" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L61" s="74"/>
+      <c r="M61" s="63"/>
+      <c r="N61" s="56"/>
+      <c r="O61" s="56"/>
+      <c r="P61" s="57"/>
+      <c r="Q61" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="R61" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="S61" s="36">
+        <v>2</v>
+      </c>
+      <c r="T61" s="36"/>
+      <c r="U61" s="81"/>
+      <c r="V61" s="15"/>
+      <c r="W61" s="15"/>
+      <c r="X61" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y61" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z61" s="36">
+        <v>220</v>
+      </c>
+      <c r="AA61" s="97">
+        <v>0.13</v>
+      </c>
+      <c r="AB61" s="91"/>
+      <c r="AC61" s="91"/>
+    </row>
+    <row r="62" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A62" s="15">
+        <v>59</v>
+      </c>
+      <c r="B62" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="C62" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E62" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="L61" s="81"/>
-      <c r="M61" s="64"/>
-      <c r="N61" s="53"/>
-      <c r="O61" s="53"/>
-      <c r="P61" s="54"/>
-      <c r="Q61" s="76">
-        <v>0.02</v>
-      </c>
-      <c r="R61" s="54">
-        <v>0.02</v>
-      </c>
-      <c r="S61" s="33">
-        <v>2</v>
-      </c>
-      <c r="T61" s="33"/>
-      <c r="U61" s="87"/>
-      <c r="V61" s="14"/>
-      <c r="W61" s="14"/>
-      <c r="X61" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y61" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z61" s="33">
-        <v>220</v>
-      </c>
-      <c r="AA61" s="102">
-        <v>0.13</v>
-      </c>
-      <c r="AB61" s="96"/>
-      <c r="AC61" s="96"/>
-    </row>
-    <row r="62" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A62" s="14">
-        <v>59</v>
-      </c>
-      <c r="B62" s="43" t="s">
-        <v>289</v>
-      </c>
-      <c r="C62" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F62" s="46" t="s">
-        <v>290</v>
-      </c>
-      <c r="G62" s="45" t="s">
-        <v>291</v>
-      </c>
-      <c r="H62" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="I62" s="16" t="str">
+      <c r="F62" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="G62" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="H62" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="I62" s="20" t="str">
         <f>VLOOKUP(B62,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J62" s="33">
+      <c r="J62" s="36">
         <v>2</v>
       </c>
-      <c r="K62" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="L62" s="79" t="s">
-        <v>293</v>
-      </c>
-      <c r="M62" s="62">
+      <c r="K62" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L62" s="72" t="s">
+        <v>296</v>
+      </c>
+      <c r="M62" s="61">
         <f ca="1">ROUND(EVALUATE(L62)*1000*0.000000001,2)</f>
         <v>0.05</v>
       </c>
-      <c r="N62" s="56">
+      <c r="N62" s="59">
         <f ca="1">M62*T62</f>
         <v>0.05</v>
       </c>
-      <c r="O62" s="57">
+      <c r="O62" s="60">
         <v>9</v>
       </c>
-      <c r="P62" s="63">
+      <c r="P62" s="62">
         <f>O62*T62</f>
         <v>9</v>
       </c>
-      <c r="Q62" s="76">
+      <c r="Q62" s="57">
         <v>4.2</v>
       </c>
-      <c r="R62" s="54">
+      <c r="R62" s="57">
         <v>4.2</v>
       </c>
-      <c r="S62" s="33">
+      <c r="S62" s="36">
         <v>2</v>
       </c>
-      <c r="T62" s="29">
+      <c r="T62" s="32">
         <f>J62/S62</f>
         <v>1</v>
       </c>
-      <c r="U62" s="85" t="s">
+      <c r="U62" s="79" t="s">
+        <v>297</v>
+      </c>
+      <c r="V62" s="15"/>
+      <c r="W62" s="15"/>
+      <c r="X62" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y62" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z62" s="36">
+        <v>328</v>
+      </c>
+      <c r="AA62" s="97">
+        <v>0.13</v>
+      </c>
+      <c r="AB62" s="91"/>
+      <c r="AC62" s="91"/>
+    </row>
+    <row r="63" s="1" customFormat="1" customHeight="1" spans="1:29">
+      <c r="A63" s="15">
+        <v>60</v>
+      </c>
+      <c r="B63" s="46" t="s">
+        <v>298</v>
+      </c>
+      <c r="C63" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F63" s="49" t="s">
+        <v>299</v>
+      </c>
+      <c r="G63" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="V62" s="14"/>
-      <c r="W62" s="14"/>
-      <c r="X62" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y62" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z62" s="33">
-        <v>328</v>
-      </c>
-      <c r="AA62" s="102">
-        <v>0.13</v>
-      </c>
-      <c r="AB62" s="96"/>
-      <c r="AC62" s="96"/>
-    </row>
-    <row r="63" s="2" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A63" s="14">
-        <v>60</v>
-      </c>
-      <c r="B63" s="43" t="s">
-        <v>295</v>
-      </c>
-      <c r="C63" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F63" s="46" t="s">
-        <v>296</v>
-      </c>
-      <c r="G63" s="45" t="s">
-        <v>291</v>
-      </c>
-      <c r="H63" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="I63" s="16" t="str">
+      <c r="H63" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="I63" s="20" t="str">
         <f>VLOOKUP(B63,[1]CXCI2025012201!$B:$D,3,0)</f>
         <v>/</v>
       </c>
-      <c r="J63" s="33">
+      <c r="J63" s="36">
         <v>2</v>
       </c>
-      <c r="K63" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="L63" s="81"/>
-      <c r="M63" s="64"/>
-      <c r="N63" s="53"/>
-      <c r="O63" s="53"/>
-      <c r="P63" s="54"/>
-      <c r="Q63" s="76">
+      <c r="K63" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L63" s="74"/>
+      <c r="M63" s="63"/>
+      <c r="N63" s="56"/>
+      <c r="O63" s="56"/>
+      <c r="P63" s="57"/>
+      <c r="Q63" s="57">
         <v>4</v>
       </c>
-      <c r="R63" s="54">
+      <c r="R63" s="57">
         <v>4</v>
       </c>
-      <c r="S63" s="33">
+      <c r="S63" s="36">
         <v>2</v>
       </c>
-      <c r="T63" s="33"/>
-      <c r="U63" s="87"/>
-      <c r="V63" s="14"/>
-      <c r="W63" s="14"/>
-      <c r="X63" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y63" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z63" s="33">
+      <c r="T63" s="36"/>
+      <c r="U63" s="81"/>
+      <c r="V63" s="15"/>
+      <c r="W63" s="15"/>
+      <c r="X63" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y63" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z63" s="36">
         <v>328</v>
       </c>
-      <c r="AA63" s="102">
+      <c r="AA63" s="97">
         <v>0.13</v>
       </c>
-      <c r="AB63" s="96"/>
-      <c r="AC63" s="96"/>
+      <c r="AB63" s="91"/>
+      <c r="AC63" s="91"/>
     </row>
     <row r="64" customHeight="1" spans="1:29">
-      <c r="A64" s="14"/>
-      <c r="B64" s="48"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="82"/>
-      <c r="J64" s="70">
+      <c r="A64" s="15"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="75"/>
+      <c r="J64" s="66">
         <f>SUM(J4:J63)</f>
         <v>9506</v>
       </c>
-      <c r="K64" s="33"/>
-      <c r="L64" s="71"/>
-      <c r="M64" s="52"/>
-      <c r="N64" s="70">
+      <c r="K64" s="36"/>
+      <c r="L64" s="67"/>
+      <c r="M64" s="55"/>
+      <c r="N64" s="66">
         <f ca="1">SUM(N4:N63)</f>
         <v>18.32</v>
       </c>
-      <c r="O64" s="70"/>
-      <c r="P64" s="83">
+      <c r="O64" s="66"/>
+      <c r="P64" s="66">
         <f>SUM(P4:P63)</f>
-        <v>4815.46</v>
-      </c>
-      <c r="Q64" s="90"/>
-      <c r="R64" s="83">
+        <v>3374.84</v>
+      </c>
+      <c r="Q64" s="83">
+        <f>SUM(Q4:Q63)</f>
+        <v>3155.46</v>
+      </c>
+      <c r="R64" s="66">
         <f>SUM(R4:R63)</f>
         <v>3156.66</v>
       </c>
-      <c r="S64" s="71"/>
-      <c r="T64" s="70">
+      <c r="S64" s="67"/>
+      <c r="T64" s="66">
         <f>SUM(T4:T63)</f>
         <v>168</v>
       </c>
-      <c r="U64" s="91"/>
-      <c r="V64" s="88"/>
-      <c r="W64" s="88"/>
-      <c r="X64" s="92"/>
-      <c r="Y64" s="71"/>
-      <c r="Z64" s="94"/>
-      <c r="AA64" s="93"/>
-      <c r="AB64" s="95"/>
-      <c r="AC64" s="96"/>
+      <c r="U64" s="84"/>
+      <c r="V64" s="82"/>
+      <c r="W64" s="82"/>
+      <c r="X64" s="85"/>
+      <c r="Y64" s="67"/>
+      <c r="Z64" s="89"/>
+      <c r="AA64" s="88"/>
+      <c r="AB64" s="90"/>
+      <c r="AC64" s="91"/>
     </row>
     <row r="65" customHeight="1" spans="1:27">
-      <c r="A65" s="106"/>
-      <c r="B65" s="107"/>
-      <c r="C65" s="107"/>
-      <c r="D65" s="108"/>
-      <c r="E65" s="108"/>
-      <c r="F65" s="109"/>
-      <c r="G65" s="110"/>
-      <c r="H65" s="110"/>
-      <c r="I65" s="112"/>
-      <c r="J65" s="113"/>
-      <c r="K65" s="106"/>
-      <c r="L65" s="114"/>
-      <c r="M65" s="115"/>
-      <c r="N65" s="115"/>
-      <c r="O65" s="115"/>
-      <c r="P65" s="116"/>
-      <c r="Q65" s="118"/>
-      <c r="R65" s="119"/>
-      <c r="S65" s="106"/>
-      <c r="T65" s="106"/>
-      <c r="U65" s="120"/>
-      <c r="V65" s="121"/>
-      <c r="W65" s="121"/>
-      <c r="X65" s="114"/>
-      <c r="Y65" s="114"/>
-      <c r="Z65" s="123"/>
-      <c r="AA65" s="124"/>
+      <c r="A65" s="99"/>
+      <c r="B65" s="100"/>
+      <c r="C65" s="100"/>
+      <c r="D65" s="101"/>
+      <c r="E65" s="101"/>
+      <c r="F65" s="102"/>
+      <c r="G65" s="103"/>
+      <c r="H65" s="103"/>
+      <c r="I65" s="105"/>
+      <c r="J65" s="106"/>
+      <c r="K65" s="99"/>
+      <c r="L65" s="107"/>
+      <c r="M65" s="108"/>
+      <c r="N65" s="108"/>
+      <c r="O65" s="108"/>
+      <c r="P65" s="109"/>
+      <c r="Q65" s="109"/>
+      <c r="R65" s="99"/>
+      <c r="S65" s="99"/>
+      <c r="T65" s="99"/>
+      <c r="U65" s="111"/>
+      <c r="V65" s="112"/>
+      <c r="W65" s="112"/>
+      <c r="X65" s="107"/>
+      <c r="Y65" s="107"/>
+      <c r="Z65" s="113"/>
+      <c r="AA65" s="114"/>
     </row>
     <row r="66" customHeight="1" spans="1:27">
-      <c r="A66" s="106"/>
-      <c r="B66" s="106"/>
-      <c r="C66" s="106"/>
-      <c r="D66" s="106"/>
-      <c r="E66" s="106"/>
-      <c r="F66" s="111"/>
-      <c r="G66" s="106"/>
-      <c r="H66" s="106"/>
-      <c r="I66" s="106"/>
-      <c r="J66" s="4"/>
-      <c r="P66" s="117"/>
-      <c r="Q66" s="122"/>
-      <c r="Z66" s="123"/>
-      <c r="AA66" s="124"/>
+      <c r="A66" s="99"/>
+      <c r="B66" s="99"/>
+      <c r="C66" s="99"/>
+      <c r="D66" s="99"/>
+      <c r="E66" s="99"/>
+      <c r="F66" s="104"/>
+      <c r="G66" s="99"/>
+      <c r="H66" s="99"/>
+      <c r="I66" s="99"/>
+      <c r="J66" s="2"/>
+      <c r="P66" s="110"/>
+      <c r="Q66" s="110"/>
+      <c r="Z66" s="113"/>
+      <c r="AA66" s="114"/>
     </row>
     <row r="67" customHeight="1" spans="26:27">
-      <c r="Z67" s="123"/>
-      <c r="AA67" s="124"/>
+      <c r="Z67" s="113"/>
+      <c r="AA67" s="114"/>
     </row>
     <row r="68" customHeight="1" spans="26:27">
-      <c r="Z68" s="123"/>
-      <c r="AA68" s="124"/>
+      <c r="Z68" s="113"/>
+      <c r="AA68" s="114"/>
     </row>
     <row r="69" customHeight="1" spans="26:27">
-      <c r="Z69" s="123"/>
-      <c r="AA69" s="124"/>
+      <c r="Z69" s="113"/>
+      <c r="AA69" s="114"/>
     </row>
     <row r="70" customHeight="1" spans="26:27">
-      <c r="Z70" s="123"/>
-      <c r="AA70" s="124"/>
+      <c r="Z70" s="113"/>
+      <c r="AA70" s="114"/>
     </row>
     <row r="71" customHeight="1" spans="26:27">
-      <c r="Z71" s="123"/>
-      <c r="AA71" s="124"/>
+      <c r="Z71" s="113"/>
+      <c r="AA71" s="114"/>
     </row>
     <row r="72" customHeight="1" spans="26:27">
-      <c r="Z72" s="123"/>
-      <c r="AA72" s="124"/>
+      <c r="Z72" s="113"/>
+      <c r="AA72" s="114"/>
     </row>
     <row r="73" customHeight="1" spans="26:27">
-      <c r="Z73" s="123"/>
-      <c r="AA73" s="124"/>
+      <c r="Z73" s="113"/>
+      <c r="AA73" s="114"/>
     </row>
     <row r="74" customHeight="1" spans="26:27">
-      <c r="Z74" s="123"/>
-      <c r="AA74" s="124"/>
+      <c r="Z74" s="113"/>
+      <c r="AA74" s="114"/>
     </row>
     <row r="75" customHeight="1" spans="26:27">
-      <c r="Z75" s="123"/>
-      <c r="AA75" s="124"/>
+      <c r="Z75" s="113"/>
+      <c r="AA75" s="114"/>
     </row>
     <row r="76" customHeight="1" spans="26:27">
-      <c r="Z76" s="123"/>
-      <c r="AA76" s="124"/>
+      <c r="Z76" s="113"/>
+      <c r="AA76" s="114"/>
     </row>
     <row r="77" customHeight="1" spans="26:27">
-      <c r="Z77" s="123"/>
-      <c r="AA77" s="124"/>
+      <c r="Z77" s="113"/>
+      <c r="AA77" s="114"/>
     </row>
     <row r="78" customHeight="1" spans="26:27">
-      <c r="Z78" s="123"/>
-      <c r="AA78" s="124"/>
+      <c r="Z78" s="113"/>
+      <c r="AA78" s="114"/>
     </row>
     <row r="79" customHeight="1" spans="26:27">
-      <c r="Z79" s="123"/>
-      <c r="AA79" s="124"/>
+      <c r="Z79" s="113"/>
+      <c r="AA79" s="114"/>
     </row>
     <row r="80" customHeight="1" spans="26:27">
-      <c r="Z80" s="123"/>
-      <c r="AA80" s="124"/>
+      <c r="Z80" s="113"/>
+      <c r="AA80" s="114"/>
     </row>
     <row r="81" customHeight="1" spans="26:27">
-      <c r="Z81" s="123"/>
-      <c r="AA81" s="124"/>
+      <c r="Z81" s="113"/>
+      <c r="AA81" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="A1:AA1"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="B39:B46"/>
     <mergeCell ref="C35:C37"/>
@@ -7807,6 +7846,7 @@
     <mergeCell ref="P22:P30"/>
     <mergeCell ref="P33:P34"/>
     <mergeCell ref="P35:P37"/>
+    <mergeCell ref="P39:P46"/>
     <mergeCell ref="P50:P61"/>
     <mergeCell ref="P62:P63"/>
     <mergeCell ref="Q35:Q37"/>
@@ -7840,10 +7880,10 @@
     <mergeCell ref="AB35:AB37"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
@@ -7860,5 +7900,6 @@
   <ignoredErrors>
     <ignoredError sqref="O31" numberStoredAsText="1"/>
   </ignoredErrors>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>